--- a/pali-class/vocab/vocab-class17.xlsx
+++ b/pali-class/vocab/vocab-class17.xlsx
@@ -79,7 +79,7 @@
     <t>ajānanta</t>
   </si>
   <si>
-    <t>tiṭṭhanta 3</t>
+    <t>tiṭṭhanta 2</t>
   </si>
   <si>
     <t>ekacca 1</t>
@@ -250,9 +250,6 @@
     <t>seṭṭha 1</t>
   </si>
   <si>
-    <t>pubba 3</t>
-  </si>
-  <si>
     <t>sacca 1</t>
   </si>
   <si>
@@ -334,7 +331,7 @@
     <t>appa 1</t>
   </si>
   <si>
-    <t>khama 1</t>
+    <t>khama 2</t>
   </si>
   <si>
     <t>svākkhāta</t>
@@ -994,6 +991,9 @@
     <t>papañca</t>
   </si>
   <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
     <t>vasa 2</t>
   </si>
   <si>
@@ -1372,42 +1372,42 @@
     <t>cora</t>
   </si>
   <si>
+    <t>attha 05</t>
+  </si>
+  <si>
+    <t>patta 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
     <t>tathāgata</t>
   </si>
   <si>
@@ -1432,9 +1432,6 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
@@ -1444,7 +1441,7 @@
     <t>vitakka 1</t>
   </si>
   <si>
-    <t>vipāka</t>
+    <t>vipāka 1</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -2170,18 +2167,18 @@
     <t>satthar 1</t>
   </si>
   <si>
+    <t>kattar 1</t>
+  </si>
+  <si>
+    <t>akkhātar</t>
+  </si>
+  <si>
+    <t>dātar 1</t>
+  </si>
+  <si>
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>kattar 1</t>
-  </si>
-  <si>
-    <t>akkhātar</t>
-  </si>
-  <si>
-    <t>dātar 1</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
@@ -2296,7 +2293,7 @@
     <t>vihareyya</t>
   </si>
   <si>
-    <t>hanati 3</t>
+    <t>hanati 2</t>
   </si>
   <si>
     <t>kareyya 1</t>
@@ -2545,18 +2542,18 @@
     <t>pīti 1</t>
   </si>
   <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
+    <t>vimutti</t>
+  </si>
+  <si>
     <t>hiri</t>
   </si>
   <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
-    <t>vimutti</t>
-  </si>
-  <si>
     <t>yattha</t>
   </si>
   <si>
@@ -2878,21 +2875,21 @@
     <t>sacca 2</t>
   </si>
   <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>addhāna 1</t>
+  </si>
+  <si>
     <t>ottappa</t>
   </si>
   <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>addhāna 1</t>
-  </si>
-  <si>
     <t>citta 3</t>
   </si>
   <si>
@@ -2941,36 +2938,39 @@
     <t>tāva 1</t>
   </si>
   <si>
+    <t>api 7</t>
+  </si>
+  <si>
+    <t>api 3</t>
+  </si>
+  <si>
+    <t>nūna 2</t>
+  </si>
+  <si>
+    <t>api 1</t>
+  </si>
+  <si>
+    <t>alaṃ 2</t>
+  </si>
+  <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
+    <t>alaṃ 5</t>
+  </si>
+  <si>
     <t>api 2</t>
   </si>
   <si>
-    <t>api 3</t>
-  </si>
-  <si>
-    <t>nūna 2</t>
-  </si>
-  <si>
-    <t>api 1</t>
-  </si>
-  <si>
-    <t>alaṃ 2</t>
-  </si>
-  <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
-    <t>alaṃ 5</t>
-  </si>
-  <si>
     <t>samanupassituṃ</t>
   </si>
   <si>
@@ -3271,9 +3271,6 @@
     <t>foremost; best; chief; most excellent; leading</t>
   </si>
   <si>
-    <t>eastern</t>
-  </si>
-  <si>
     <t>true; correct; accurate; honest; reliable</t>
   </si>
   <si>
@@ -3355,7 +3352,7 @@
     <t>few; not many; not much</t>
   </si>
   <si>
-    <t>patient; forbearing; enduring</t>
+    <t>fit (for); capable (of); suitable (for)</t>
   </si>
   <si>
     <t>well taught; well explained; well told</t>
@@ -4012,6 +4009,9 @@
     <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
   </si>
   <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
     <t>control; authority; power; mastery</t>
   </si>
   <si>
@@ -4387,42 +4387,42 @@
     <t>thief</t>
   </si>
   <si>
+    <t>need (for); want (for)</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl</t>
+  </si>
+  <si>
+    <t>personal acquisition (of); obtaining (of); gaining (of)</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; spiritual teacher</t>
+  </si>
+  <si>
+    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>beneficial friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection (of houses)</t>
+  </si>
+  <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>personal acquisition (of); obtaining (of); gaining (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
-  </si>
-  <si>
     <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
   </si>
   <si>
@@ -4447,9 +4447,6 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
   </si>
   <si>
@@ -5176,18 +5173,18 @@
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
+    <t>doer; creator; maker</t>
+  </si>
+  <si>
+    <t>speaker; who tells</t>
+  </si>
+  <si>
+    <t>giver; donor; bestower</t>
+  </si>
+  <si>
     <t>speaker</t>
   </si>
   <si>
-    <t>doer; creator; maker</t>
-  </si>
-  <si>
-    <t>speaker; who tells</t>
-  </si>
-  <si>
-    <t>giver; donor; bestower</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
@@ -5302,7 +5299,7 @@
     <t>may live; could stay</t>
   </si>
   <si>
-    <t>punishes; flogs; beats</t>
+    <t>kills; executes</t>
   </si>
   <si>
     <t>could do; would do</t>
@@ -5545,18 +5542,18 @@
     <t>delight; heart-felt joy; rapture; joyful interest; bliss; lit. lovely feeling</t>
   </si>
   <si>
+    <t>calmness; tranquillity; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
+    <t>release; deliverance; freedom; liberation</t>
+  </si>
+  <si>
     <t>sense of shame; modesty; conscience; sense of right and wrong; scruples; (comm) due the internal</t>
   </si>
   <si>
-    <t>calmness; tranquillity; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
-    <t>release; deliverance; freedom; liberation</t>
-  </si>
-  <si>
     <t>wherever; where; lit. in whichever place</t>
   </si>
   <si>
@@ -5875,21 +5872,21 @@
     <t>truth</t>
   </si>
   <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>long road; highroad; journey</t>
+  </si>
+  <si>
     <t>regret; shame in wrongdoing; (comm) due to external</t>
   </si>
   <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>long road; highroad; journey</t>
-  </si>
-  <si>
     <t>mind; heart</t>
   </si>
   <si>
@@ -5938,7 +5935,7 @@
     <t>that much; that far; as long as; to that extent; until; at least</t>
   </si>
   <si>
-    <t>even; also; and</t>
+    <t>too; also; as well</t>
   </si>
   <si>
     <t>if; even if</t>
@@ -5966,6 +5963,9 @@
   </si>
   <si>
     <t>that's enough (of)! stop (with)!</t>
+  </si>
+  <si>
+    <t>even; even then</t>
   </si>
   <si>
     <t>to see; to regard; to consider</t>
@@ -8496,13 +8496,13 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C113" t="s">
         <v>1123</v>
       </c>
       <c r="D113" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E113" t="s">
         <v>2058</v>
@@ -8513,13 +8513,13 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C114" t="s">
         <v>1124</v>
       </c>
       <c r="D114" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E114" t="s">
         <v>2058</v>
@@ -8734,7 +8734,7 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C127" t="s">
         <v>1137</v>
@@ -8751,7 +8751,7 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C128" t="s">
         <v>1138</v>
@@ -9108,13 +9108,13 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C149" t="s">
         <v>1159</v>
       </c>
       <c r="D149" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E149" t="s">
         <v>2058</v>
@@ -9131,7 +9131,7 @@
         <v>1160</v>
       </c>
       <c r="D150" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E150" t="s">
         <v>2058</v>
@@ -9148,7 +9148,7 @@
         <v>1161</v>
       </c>
       <c r="D151" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E151" t="s">
         <v>2058</v>
@@ -9165,7 +9165,7 @@
         <v>1162</v>
       </c>
       <c r="D152" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E152" t="s">
         <v>2058</v>
@@ -9176,13 +9176,13 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C153" t="s">
         <v>1163</v>
       </c>
       <c r="D153" t="s">
-        <v>2005</v>
+        <v>998</v>
       </c>
       <c r="E153" t="s">
         <v>2058</v>
@@ -9227,13 +9227,13 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C156" t="s">
         <v>1166</v>
       </c>
       <c r="D156" t="s">
-        <v>998</v>
+        <v>2006</v>
       </c>
       <c r="E156" t="s">
         <v>2058</v>
@@ -9284,7 +9284,7 @@
         <v>1169</v>
       </c>
       <c r="D159" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E159" t="s">
         <v>2058</v>
@@ -9318,7 +9318,7 @@
         <v>1171</v>
       </c>
       <c r="D161" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E161" t="s">
         <v>2058</v>
@@ -9329,16 +9329,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C162" t="s">
         <v>1172</v>
       </c>
       <c r="D162" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E162" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -9482,13 +9482,13 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C171" t="s">
         <v>1181</v>
       </c>
       <c r="D171" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E171" t="s">
         <v>2059</v>
@@ -9590,7 +9590,7 @@
         <v>1187</v>
       </c>
       <c r="D177" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E177" t="s">
         <v>2059</v>
@@ -9624,7 +9624,7 @@
         <v>1189</v>
       </c>
       <c r="D179" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E179" t="s">
         <v>2059</v>
@@ -9641,7 +9641,7 @@
         <v>1190</v>
       </c>
       <c r="D180" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E180" t="s">
         <v>2059</v>
@@ -9658,7 +9658,7 @@
         <v>1191</v>
       </c>
       <c r="D181" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E181" t="s">
         <v>2059</v>
@@ -9675,7 +9675,7 @@
         <v>1192</v>
       </c>
       <c r="D182" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E182" t="s">
         <v>2059</v>
@@ -9692,7 +9692,7 @@
         <v>1193</v>
       </c>
       <c r="D183" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E183" t="s">
         <v>2059</v>
@@ -9703,16 +9703,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C184" t="s">
         <v>1194</v>
       </c>
       <c r="D184" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E184" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -10060,13 +10060,13 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C205" t="s">
         <v>1215</v>
       </c>
       <c r="D205" t="s">
-        <v>2017</v>
+        <v>998</v>
       </c>
       <c r="E205" t="s">
         <v>2060</v>
@@ -10777,7 +10777,7 @@
         <v>998</v>
       </c>
       <c r="C247" t="s">
-        <v>1257</v>
+        <v>1234</v>
       </c>
       <c r="D247" t="s">
         <v>998</v>
@@ -10794,7 +10794,7 @@
         <v>998</v>
       </c>
       <c r="C248" t="s">
-        <v>1235</v>
+        <v>1257</v>
       </c>
       <c r="D248" t="s">
         <v>998</v>
@@ -10825,13 +10825,13 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C250" t="s">
         <v>1259</v>
       </c>
       <c r="D250" t="s">
-        <v>998</v>
+        <v>1998</v>
       </c>
       <c r="E250" t="s">
         <v>2060</v>
@@ -10859,16 +10859,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C252" t="s">
         <v>1261</v>
       </c>
       <c r="D252" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E252" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -10893,13 +10893,13 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="C254" t="s">
         <v>1263</v>
       </c>
       <c r="D254" t="s">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="E254" t="s">
         <v>2061</v>
@@ -11080,13 +11080,13 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C265" t="s">
         <v>1274</v>
       </c>
       <c r="D265" t="s">
-        <v>2018</v>
+        <v>1003</v>
       </c>
       <c r="E265" t="s">
         <v>2061</v>
@@ -11216,13 +11216,13 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C273" t="s">
         <v>1282</v>
       </c>
       <c r="D273" t="s">
-        <v>1003</v>
+        <v>2017</v>
       </c>
       <c r="E273" t="s">
         <v>2061</v>
@@ -11233,13 +11233,13 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C274" t="s">
         <v>1283</v>
       </c>
       <c r="D274" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E274" t="s">
         <v>2061</v>
@@ -11250,13 +11250,13 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C275" t="s">
         <v>1284</v>
       </c>
       <c r="D275" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E275" t="s">
         <v>2061</v>
@@ -11607,13 +11607,13 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C296" t="s">
         <v>1305</v>
       </c>
       <c r="D296" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E296" t="s">
         <v>2061</v>
@@ -11624,13 +11624,13 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C297" t="s">
         <v>1306</v>
       </c>
       <c r="D297" t="s">
-        <v>2021</v>
+        <v>1005</v>
       </c>
       <c r="E297" t="s">
         <v>2061</v>
@@ -11641,13 +11641,13 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C298" t="s">
         <v>1307</v>
       </c>
       <c r="D298" t="s">
-        <v>1005</v>
+        <v>2022</v>
       </c>
       <c r="E298" t="s">
         <v>2061</v>
@@ -11658,16 +11658,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="C299" t="s">
         <v>1308</v>
       </c>
       <c r="D299" t="s">
-        <v>2022</v>
+        <v>2000</v>
       </c>
       <c r="E299" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -14639,7 +14639,7 @@
         <v>1482</v>
       </c>
       <c r="D474" t="s">
-        <v>2000</v>
+        <v>2023</v>
       </c>
       <c r="E474" t="s">
         <v>2062</v>
@@ -14673,10 +14673,10 @@
         <v>1484</v>
       </c>
       <c r="D476" t="s">
-        <v>2023</v>
+        <v>2000</v>
       </c>
       <c r="E476" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -14718,13 +14718,13 @@
         <v>482</v>
       </c>
       <c r="B479" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="C479" t="s">
         <v>1487</v>
       </c>
       <c r="D479" t="s">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E479" t="s">
         <v>2063</v>
@@ -14905,7 +14905,7 @@
         <v>493</v>
       </c>
       <c r="B490" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C490" t="s">
         <v>1498</v>
@@ -14922,7 +14922,7 @@
         <v>494</v>
       </c>
       <c r="B491" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C491" t="s">
         <v>1499</v>
@@ -15789,7 +15789,7 @@
         <v>545</v>
       </c>
       <c r="B542" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C542" t="s">
         <v>1550</v>
@@ -15806,7 +15806,7 @@
         <v>546</v>
       </c>
       <c r="B543" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C543" t="s">
         <v>1551</v>
@@ -15829,7 +15829,7 @@
         <v>1552</v>
       </c>
       <c r="D544" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E544" t="s">
         <v>2063</v>
@@ -15982,7 +15982,7 @@
         <v>1561</v>
       </c>
       <c r="D553" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E553" t="s">
         <v>2063</v>
@@ -15993,7 +15993,7 @@
         <v>557</v>
       </c>
       <c r="B554" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C554" t="s">
         <v>1562</v>
@@ -16010,13 +16010,13 @@
         <v>558</v>
       </c>
       <c r="B555" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C555" t="s">
         <v>1563</v>
       </c>
       <c r="D555" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E555" t="s">
         <v>2063</v>
@@ -16033,7 +16033,7 @@
         <v>1564</v>
       </c>
       <c r="D556" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E556" t="s">
         <v>2063</v>
@@ -16078,7 +16078,7 @@
         <v>562</v>
       </c>
       <c r="B559" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C559" t="s">
         <v>1567</v>
@@ -16095,7 +16095,7 @@
         <v>563</v>
       </c>
       <c r="B560" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C560" t="s">
         <v>1568</v>
@@ -16251,7 +16251,7 @@
         <v>1001</v>
       </c>
       <c r="C569" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D569" t="s">
         <v>2026</v>
@@ -16268,7 +16268,7 @@
         <v>1001</v>
       </c>
       <c r="C570" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="D570" t="s">
         <v>2026</v>
@@ -16282,16 +16282,16 @@
         <v>574</v>
       </c>
       <c r="B571" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C571" t="s">
         <v>1578</v>
       </c>
       <c r="D571" t="s">
-        <v>2026</v>
+        <v>2000</v>
       </c>
       <c r="E571" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -16316,13 +16316,13 @@
         <v>576</v>
       </c>
       <c r="B573" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="C573" t="s">
         <v>1580</v>
       </c>
       <c r="D573" t="s">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E573" t="s">
         <v>2064</v>
@@ -16577,7 +16577,7 @@
         <v>1595</v>
       </c>
       <c r="D588" t="s">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="E588" t="s">
         <v>2064</v>
@@ -16656,7 +16656,7 @@
         <v>596</v>
       </c>
       <c r="B593" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C593" t="s">
         <v>1600</v>
@@ -16673,7 +16673,7 @@
         <v>597</v>
       </c>
       <c r="B594" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C594" t="s">
         <v>1601</v>
@@ -16690,13 +16690,13 @@
         <v>598</v>
       </c>
       <c r="B595" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C595" t="s">
         <v>1602</v>
       </c>
       <c r="D595" t="s">
-        <v>2027</v>
+        <v>2019</v>
       </c>
       <c r="E595" t="s">
         <v>2064</v>
@@ -16713,7 +16713,7 @@
         <v>1603</v>
       </c>
       <c r="D596" t="s">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="E596" t="s">
         <v>2064</v>
@@ -16741,13 +16741,13 @@
         <v>601</v>
       </c>
       <c r="B598" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C598" t="s">
         <v>1605</v>
       </c>
       <c r="D598" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="E598" t="s">
         <v>2064</v>
@@ -16775,7 +16775,7 @@
         <v>603</v>
       </c>
       <c r="B600" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C600" t="s">
         <v>1607</v>
@@ -16809,13 +16809,13 @@
         <v>605</v>
       </c>
       <c r="B602" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C602" t="s">
         <v>1609</v>
       </c>
       <c r="D602" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="E602" t="s">
         <v>2064</v>
@@ -16962,13 +16962,13 @@
         <v>614</v>
       </c>
       <c r="B611" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="C611" t="s">
         <v>1618</v>
       </c>
       <c r="D611" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="E611" t="s">
         <v>2064</v>
@@ -17149,13 +17149,13 @@
         <v>625</v>
       </c>
       <c r="B622" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="C622" t="s">
         <v>1629</v>
       </c>
       <c r="D622" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="E622" t="s">
         <v>2064</v>
@@ -17166,7 +17166,7 @@
         <v>626</v>
       </c>
       <c r="B623" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C623" t="s">
         <v>1630</v>
@@ -17183,13 +17183,13 @@
         <v>627</v>
       </c>
       <c r="B624" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C624" t="s">
         <v>1631</v>
       </c>
       <c r="D624" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="E624" t="s">
         <v>2064</v>
@@ -17234,13 +17234,13 @@
         <v>630</v>
       </c>
       <c r="B627" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C627" t="s">
         <v>1634</v>
       </c>
       <c r="D627" t="s">
-        <v>2025</v>
+        <v>2032</v>
       </c>
       <c r="E627" t="s">
         <v>2064</v>
@@ -17308,7 +17308,7 @@
         <v>1638</v>
       </c>
       <c r="D631" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="E631" t="s">
         <v>2064</v>
@@ -17336,16 +17336,16 @@
         <v>636</v>
       </c>
       <c r="B633" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="C633" t="s">
         <v>1640</v>
       </c>
       <c r="D633" t="s">
-        <v>2033</v>
+        <v>2000</v>
       </c>
       <c r="E633" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -17455,13 +17455,13 @@
         <v>643</v>
       </c>
       <c r="B640" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C640" t="s">
         <v>1647</v>
       </c>
       <c r="D640" t="s">
-        <v>2000</v>
+        <v>2034</v>
       </c>
       <c r="E640" t="s">
         <v>2065</v>
@@ -17560,7 +17560,7 @@
         <v>993</v>
       </c>
       <c r="C646" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="D646" t="s">
         <v>2034</v>
@@ -17577,7 +17577,7 @@
         <v>993</v>
       </c>
       <c r="C647" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="D647" t="s">
         <v>2034</v>
@@ -17659,13 +17659,13 @@
         <v>655</v>
       </c>
       <c r="B652" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="C652" t="s">
         <v>1658</v>
       </c>
       <c r="D652" t="s">
-        <v>2034</v>
+        <v>2017</v>
       </c>
       <c r="E652" t="s">
         <v>2065</v>
@@ -17682,7 +17682,7 @@
         <v>1659</v>
       </c>
       <c r="D653" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E653" t="s">
         <v>2065</v>
@@ -17693,13 +17693,13 @@
         <v>657</v>
       </c>
       <c r="B654" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C654" t="s">
         <v>1660</v>
       </c>
       <c r="D654" t="s">
-        <v>2020</v>
+        <v>998</v>
       </c>
       <c r="E654" t="s">
         <v>2065</v>
@@ -17812,13 +17812,13 @@
         <v>664</v>
       </c>
       <c r="B661" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="C661" t="s">
         <v>1667</v>
       </c>
       <c r="D661" t="s">
-        <v>998</v>
+        <v>2035</v>
       </c>
       <c r="E661" t="s">
         <v>2065</v>
@@ -17897,13 +17897,13 @@
         <v>669</v>
       </c>
       <c r="B666" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="C666" t="s">
         <v>1672</v>
       </c>
       <c r="D666" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="E666" t="s">
         <v>2065</v>
@@ -17914,13 +17914,13 @@
         <v>670</v>
       </c>
       <c r="B667" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="C667" t="s">
         <v>1673</v>
       </c>
       <c r="D667" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="E667" t="s">
         <v>2065</v>
@@ -17965,13 +17965,13 @@
         <v>673</v>
       </c>
       <c r="B670" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="C670" t="s">
         <v>1676</v>
       </c>
       <c r="D670" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E670" t="s">
         <v>2065</v>
@@ -18138,7 +18138,7 @@
         <v>993</v>
       </c>
       <c r="C680" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="D680" t="s">
         <v>2038</v>
@@ -18155,7 +18155,7 @@
         <v>993</v>
       </c>
       <c r="C681" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="D681" t="s">
         <v>2038</v>
@@ -18186,13 +18186,13 @@
         <v>686</v>
       </c>
       <c r="B683" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="C683" t="s">
         <v>1688</v>
       </c>
       <c r="D683" t="s">
-        <v>2038</v>
+        <v>2026</v>
       </c>
       <c r="E683" t="s">
         <v>2065</v>
@@ -18203,13 +18203,13 @@
         <v>687</v>
       </c>
       <c r="B684" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C684" t="s">
         <v>1689</v>
       </c>
       <c r="D684" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
       <c r="E684" t="s">
         <v>2065</v>
@@ -18390,13 +18390,13 @@
         <v>698</v>
       </c>
       <c r="B695" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C695" t="s">
         <v>1700</v>
       </c>
       <c r="D695" t="s">
-        <v>2007</v>
+        <v>2039</v>
       </c>
       <c r="E695" t="s">
         <v>2065</v>
@@ -18515,10 +18515,10 @@
         <v>1707</v>
       </c>
       <c r="D702" t="s">
-        <v>2039</v>
+        <v>2000</v>
       </c>
       <c r="E702" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -18526,13 +18526,13 @@
         <v>706</v>
       </c>
       <c r="B703" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C703" t="s">
         <v>1708</v>
       </c>
       <c r="D703" t="s">
-        <v>2000</v>
+        <v>2040</v>
       </c>
       <c r="E703" t="s">
         <v>2066</v>
@@ -18628,13 +18628,13 @@
         <v>712</v>
       </c>
       <c r="B709" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C709" t="s">
         <v>1714</v>
       </c>
       <c r="D709" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="E709" t="s">
         <v>2066</v>
@@ -18702,7 +18702,7 @@
         <v>1718</v>
       </c>
       <c r="D713" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E713" t="s">
         <v>2066</v>
@@ -18787,7 +18787,7 @@
         <v>1723</v>
       </c>
       <c r="D718" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="E718" t="s">
         <v>2066</v>
@@ -18832,13 +18832,13 @@
         <v>724</v>
       </c>
       <c r="B721" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="C721" t="s">
         <v>1726</v>
       </c>
       <c r="D721" t="s">
-        <v>2043</v>
+        <v>2017</v>
       </c>
       <c r="E721" t="s">
         <v>2066</v>
@@ -18849,13 +18849,13 @@
         <v>725</v>
       </c>
       <c r="B722" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C722" t="s">
         <v>1727</v>
       </c>
       <c r="D722" t="s">
-        <v>2017</v>
+        <v>998</v>
       </c>
       <c r="E722" t="s">
         <v>2066</v>
@@ -19053,13 +19053,13 @@
         <v>737</v>
       </c>
       <c r="B734" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C734" t="s">
         <v>1739</v>
       </c>
       <c r="D734" t="s">
-        <v>998</v>
+        <v>2044</v>
       </c>
       <c r="E734" t="s">
         <v>2066</v>
@@ -19121,13 +19121,13 @@
         <v>741</v>
       </c>
       <c r="B738" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C738" t="s">
         <v>1743</v>
       </c>
       <c r="D738" t="s">
-        <v>2044</v>
+        <v>2007</v>
       </c>
       <c r="E738" t="s">
         <v>2066</v>
@@ -19144,7 +19144,7 @@
         <v>1744</v>
       </c>
       <c r="D739" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E739" t="s">
         <v>2066</v>
@@ -19189,13 +19189,13 @@
         <v>745</v>
       </c>
       <c r="B742" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C742" t="s">
         <v>1747</v>
       </c>
       <c r="D742" t="s">
-        <v>2008</v>
+        <v>2045</v>
       </c>
       <c r="E742" t="s">
         <v>2066</v>
@@ -19229,10 +19229,10 @@
         <v>1749</v>
       </c>
       <c r="D744" t="s">
-        <v>2045</v>
+        <v>2000</v>
       </c>
       <c r="E744" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -19257,13 +19257,13 @@
         <v>749</v>
       </c>
       <c r="B746" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="C746" t="s">
         <v>1751</v>
       </c>
       <c r="D746" t="s">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E746" t="s">
         <v>2067</v>
@@ -19274,13 +19274,13 @@
         <v>750</v>
       </c>
       <c r="B747" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="C747" t="s">
         <v>1752</v>
       </c>
       <c r="D747" t="s">
-        <v>2017</v>
+        <v>2046</v>
       </c>
       <c r="E747" t="s">
         <v>2067</v>
@@ -19427,13 +19427,13 @@
         <v>759</v>
       </c>
       <c r="B756" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C756" t="s">
         <v>1761</v>
       </c>
       <c r="D756" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="E756" t="s">
         <v>2067</v>
@@ -19444,13 +19444,13 @@
         <v>760</v>
       </c>
       <c r="B757" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="C757" t="s">
         <v>1762</v>
       </c>
       <c r="D757" t="s">
-        <v>2047</v>
+        <v>2031</v>
       </c>
       <c r="E757" t="s">
         <v>2067</v>
@@ -19467,7 +19467,7 @@
         <v>1763</v>
       </c>
       <c r="D758" t="s">
-        <v>2031</v>
+        <v>2048</v>
       </c>
       <c r="E758" t="s">
         <v>2067</v>
@@ -19484,7 +19484,7 @@
         <v>1764</v>
       </c>
       <c r="D759" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="E759" t="s">
         <v>2067</v>
@@ -19495,13 +19495,13 @@
         <v>763</v>
       </c>
       <c r="B760" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C760" t="s">
         <v>1765</v>
       </c>
       <c r="D760" t="s">
-        <v>2049</v>
+        <v>2022</v>
       </c>
       <c r="E760" t="s">
         <v>2067</v>
@@ -19821,7 +19821,7 @@
         <v>1006</v>
       </c>
       <c r="C779" t="s">
-        <v>1784</v>
+        <v>1329</v>
       </c>
       <c r="D779" t="s">
         <v>2022</v>
@@ -19838,7 +19838,7 @@
         <v>1006</v>
       </c>
       <c r="C780" t="s">
-        <v>1330</v>
+        <v>1784</v>
       </c>
       <c r="D780" t="s">
         <v>2022</v>
@@ -20073,16 +20073,16 @@
         <v>797</v>
       </c>
       <c r="B794" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="C794" t="s">
         <v>1798</v>
       </c>
       <c r="D794" t="s">
-        <v>2022</v>
+        <v>2000</v>
       </c>
       <c r="E794" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -20107,13 +20107,13 @@
         <v>799</v>
       </c>
       <c r="B796" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="C796" t="s">
         <v>1800</v>
       </c>
       <c r="D796" t="s">
-        <v>2000</v>
+        <v>1003</v>
       </c>
       <c r="E796" t="s">
         <v>2068</v>
@@ -20365,7 +20365,7 @@
         <v>1003</v>
       </c>
       <c r="C811" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="D811" t="s">
         <v>1003</v>
@@ -20382,7 +20382,7 @@
         <v>1003</v>
       </c>
       <c r="C812" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="D812" t="s">
         <v>1003</v>
@@ -20413,13 +20413,13 @@
         <v>817</v>
       </c>
       <c r="B814" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C814" t="s">
         <v>1817</v>
       </c>
       <c r="D814" t="s">
-        <v>1003</v>
+        <v>2050</v>
       </c>
       <c r="E814" t="s">
         <v>2068</v>
@@ -20447,13 +20447,13 @@
         <v>819</v>
       </c>
       <c r="B816" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C816" t="s">
         <v>1819</v>
       </c>
       <c r="D816" t="s">
-        <v>2050</v>
+        <v>1010</v>
       </c>
       <c r="E816" t="s">
         <v>2068</v>
@@ -20651,13 +20651,13 @@
         <v>831</v>
       </c>
       <c r="B828" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C828" t="s">
         <v>1831</v>
       </c>
       <c r="D828" t="s">
-        <v>1010</v>
+        <v>2051</v>
       </c>
       <c r="E828" t="s">
         <v>2068</v>
@@ -20906,13 +20906,13 @@
         <v>846</v>
       </c>
       <c r="B843" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C843" t="s">
         <v>1846</v>
       </c>
       <c r="D843" t="s">
-        <v>2051</v>
+        <v>998</v>
       </c>
       <c r="E843" t="s">
         <v>2068</v>
@@ -21113,7 +21113,7 @@
         <v>998</v>
       </c>
       <c r="C855" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="D855" t="s">
         <v>998</v>
@@ -21130,7 +21130,7 @@
         <v>998</v>
       </c>
       <c r="C856" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="D856" t="s">
         <v>998</v>
@@ -21161,13 +21161,13 @@
         <v>861</v>
       </c>
       <c r="B858" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="C858" t="s">
         <v>1860</v>
       </c>
       <c r="D858" t="s">
-        <v>998</v>
+        <v>2052</v>
       </c>
       <c r="E858" t="s">
         <v>2068</v>
@@ -21184,7 +21184,7 @@
         <v>1861</v>
       </c>
       <c r="D859" t="s">
-        <v>2052</v>
+        <v>2022</v>
       </c>
       <c r="E859" t="s">
         <v>2068</v>
@@ -21201,7 +21201,7 @@
         <v>1862</v>
       </c>
       <c r="D860" t="s">
-        <v>2022</v>
+        <v>2053</v>
       </c>
       <c r="E860" t="s">
         <v>2068</v>
@@ -21331,16 +21331,16 @@
         <v>871</v>
       </c>
       <c r="B868" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="C868" t="s">
         <v>1870</v>
       </c>
       <c r="D868" t="s">
-        <v>2053</v>
+        <v>1999</v>
       </c>
       <c r="E868" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="869" spans="1:5">
@@ -21348,13 +21348,13 @@
         <v>872</v>
       </c>
       <c r="B869" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C869" t="s">
         <v>1871</v>
       </c>
       <c r="D869" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E869" t="s">
         <v>2069</v>
@@ -21399,13 +21399,13 @@
         <v>875</v>
       </c>
       <c r="B872" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="C872" t="s">
         <v>1874</v>
       </c>
       <c r="D872" t="s">
-        <v>2000</v>
+        <v>2054</v>
       </c>
       <c r="E872" t="s">
         <v>2069</v>
@@ -22986,7 +22986,7 @@
         <v>1967</v>
       </c>
       <c r="D965" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="E965" t="s">
         <v>2069</v>
@@ -22997,13 +22997,13 @@
         <v>969</v>
       </c>
       <c r="B966" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="C966" t="s">
         <v>1968</v>
       </c>
       <c r="D966" t="s">
-        <v>2055</v>
+        <v>998</v>
       </c>
       <c r="E966" t="s">
         <v>2069</v>

--- a/pali-class/vocab/vocab-class17.xlsx
+++ b/pali-class/vocab/vocab-class17.xlsx
@@ -49,39 +49,39 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 2</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 2</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -91,24 +91,24 @@
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>uppajjamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>uppajjamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>methuna 1</t>
   </si>
   <si>
@@ -139,12 +139,12 @@
     <t>dakkha</t>
   </si>
   <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
     <t>hīna 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
     <t>anicca 1</t>
   </si>
   <si>
@@ -259,15 +259,15 @@
     <t>anuttara</t>
   </si>
   <si>
+    <t>appamāṇa</t>
+  </si>
+  <si>
     <t>maha 2</t>
   </si>
   <si>
     <t>vipula 1</t>
   </si>
   <si>
-    <t>appamāṇa</t>
-  </si>
-  <si>
     <t>anavajja 1</t>
   </si>
   <si>
@@ -292,6 +292,12 @@
     <t>oḷārika 2</t>
   </si>
   <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
     <t>akhaṇḍa</t>
   </si>
   <si>
@@ -322,42 +328,36 @@
     <t>abhikkanta 3</t>
   </si>
   <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>appa 1</t>
+  </si>
+  <si>
+    <t>khama 2</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
     <t>panta 2</t>
   </si>
   <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>appa 1</t>
-  </si>
-  <si>
-    <t>khama 2</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sāra 1</t>
   </si>
   <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
     <t>sukhuma 1</t>
   </si>
   <si>
@@ -580,66 +580,66 @@
     <t>pavuccati</t>
   </si>
   <si>
+    <t>vuccati</t>
+  </si>
+  <si>
+    <t>pahīyati 1.1</t>
+  </si>
+  <si>
+    <t>nirujjhati</t>
+  </si>
+  <si>
+    <t>ñāyati 1</t>
+  </si>
+  <si>
+    <t>jāyati 2</t>
+  </si>
+  <si>
+    <t>vimuccati</t>
+  </si>
+  <si>
+    <t>vijjati 1</t>
+  </si>
+  <si>
+    <t>parinibbāyati 1</t>
+  </si>
+  <si>
+    <t>muccati 1.1</t>
+  </si>
+  <si>
+    <t>paññāyati 1</t>
+  </si>
+  <si>
+    <t>samādhiyati</t>
+  </si>
+  <si>
+    <t>virajjati 1</t>
+  </si>
+  <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
+    <t>haññati 2</t>
+  </si>
+  <si>
+    <t>dissati 2</t>
+  </si>
+  <si>
+    <t>khajjati 1</t>
+  </si>
+  <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>chijjati 1</t>
   </si>
   <si>
-    <t>vuccati</t>
-  </si>
-  <si>
-    <t>pahīyati 1.1</t>
-  </si>
-  <si>
-    <t>nirujjhati</t>
-  </si>
-  <si>
-    <t>ñāyati 1</t>
-  </si>
-  <si>
-    <t>jāyati 2</t>
-  </si>
-  <si>
-    <t>vimuccati</t>
-  </si>
-  <si>
-    <t>vijjati 1</t>
-  </si>
-  <si>
     <t>paritassati</t>
   </si>
   <si>
-    <t>parinibbāyati 1</t>
-  </si>
-  <si>
-    <t>muccati 1.1</t>
-  </si>
-  <si>
-    <t>paññāyati 1</t>
-  </si>
-  <si>
-    <t>samādhiyati</t>
-  </si>
-  <si>
-    <t>virajjati 1</t>
-  </si>
-  <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>vinassati</t>
   </si>
   <si>
-    <t>haññati 2</t>
-  </si>
-  <si>
-    <t>dissati 2</t>
-  </si>
-  <si>
-    <t>khajjati 1</t>
-  </si>
-  <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>pana</t>
   </si>
   <si>
@@ -676,12 +676,15 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>ce 1</t>
+  </si>
+  <si>
+    <t>santike 1</t>
+  </si>
+  <si>
     <t>dūre 2</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
     <t>bahiddhā 1</t>
   </si>
   <si>
@@ -724,6 +727,9 @@
     <t>antamaso 1</t>
   </si>
   <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
@@ -766,12 +772,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>ce 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
     <t>yoniso</t>
   </si>
   <si>
@@ -808,15 +808,15 @@
     <t>kāretabba 1</t>
   </si>
   <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
     <t>daṭṭhabba 1</t>
   </si>
   <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
     <t>pahātabba</t>
   </si>
   <si>
@@ -859,60 +859,60 @@
     <t>deseti 1</t>
   </si>
   <si>
+    <t>sameti 1.1</t>
+  </si>
+  <si>
+    <t>māneti</t>
+  </si>
+  <si>
+    <t>upaṭṭhāpeti 2</t>
+  </si>
+  <si>
+    <t>paññāpeti 3</t>
+  </si>
+  <si>
+    <t>paripūreti 1</t>
+  </si>
+  <si>
+    <t>parisandeti</t>
+  </si>
+  <si>
+    <t>abhininnāmeti 1</t>
+  </si>
+  <si>
+    <t>pakāseti 2</t>
+  </si>
+  <si>
+    <t>parisodheti</t>
+  </si>
+  <si>
+    <t>pasāreti</t>
+  </si>
+  <si>
+    <t>atikkāmeti 2</t>
+  </si>
+  <si>
+    <t>kāreti 4</t>
+  </si>
+  <si>
+    <t>kappeti 1</t>
+  </si>
+  <si>
+    <t>janeti</t>
+  </si>
+  <si>
+    <t>bhāveti</t>
+  </si>
+  <si>
+    <t>sameti 2.2</t>
+  </si>
+  <si>
+    <t>abhisandeti</t>
+  </si>
+  <si>
     <t>pabbājeti 1</t>
   </si>
   <si>
-    <t>sameti 1.1</t>
-  </si>
-  <si>
-    <t>māneti</t>
-  </si>
-  <si>
-    <t>upaṭṭhāpeti 2</t>
-  </si>
-  <si>
-    <t>paññāpeti 3</t>
-  </si>
-  <si>
-    <t>paripūreti 1</t>
-  </si>
-  <si>
-    <t>parisandeti</t>
-  </si>
-  <si>
-    <t>abhisandeti</t>
-  </si>
-  <si>
-    <t>abhininnāmeti 1</t>
-  </si>
-  <si>
-    <t>pakāseti 2</t>
-  </si>
-  <si>
-    <t>parisodheti</t>
-  </si>
-  <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
-    <t>atikkāmeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 4</t>
-  </si>
-  <si>
-    <t>kappeti 1</t>
-  </si>
-  <si>
-    <t>bhāveti</t>
-  </si>
-  <si>
-    <t>janeti</t>
-  </si>
-  <si>
-    <t>sameti 2.2</t>
-  </si>
-  <si>
     <t>pamādi</t>
   </si>
   <si>
@@ -928,507 +928,507 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>attha 1.3</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.3</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>kumāra 2</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>rājañña</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
   </si>
   <si>
     <t>majjha 2</t>
   </si>
   <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
+    <t>manasikāra</t>
   </si>
   <si>
     <t>sakka 3</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>kumāra 2</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>rājañña</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna 1</t>
   </si>
   <si>
@@ -1474,186 +1474,186 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>paṭisañcikkhati</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>paṭisañcikkhati</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1672,12 +1672,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -1702,39 +1702,39 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>saṇṭhāti</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>saṇṭhāti</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -1747,6 +1747,9 @@
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -1756,36 +1759,33 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>muñcati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>muñcati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -1843,18 +1843,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -1867,6 +1867,9 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -1885,9 +1888,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -1909,12 +1909,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -1954,6 +1954,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -1975,9 +1978,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2044,6 +2044,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -2053,24 +2056,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -2170,27 +2170,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>āyatiṃ</t>
   </si>
   <si>
@@ -2206,36 +2209,33 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>dāni</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -2254,12 +2254,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -2281,15 +2281,15 @@
     <t>passeyya 1</t>
   </si>
   <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
     <t>upapajjeyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -2320,6 +2320,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -2371,12 +2377,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -2419,51 +2419,51 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>pharitvā 1</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>paṭissutvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
+    <t>disvāna</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>pharitvā 1</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>paṭissutvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
-    <t>disvāna</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -2488,24 +2488,24 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>vivicca</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>abhinivissa</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
-    <t>vivicca</t>
-  </si>
-  <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
-  </si>
-  <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
@@ -2530,21 +2530,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -2554,48 +2554,48 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tatra 2</t>
+  </si>
+  <si>
+    <t>idha 1</t>
+  </si>
+  <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>tato 4</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>tatra 2</t>
-  </si>
-  <si>
-    <t>idha 1</t>
-  </si>
-  <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tato 4</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2737,6 +2737,9 @@
     <t>padhāna 1</t>
   </si>
   <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
     <t>vattha 1.1</t>
   </si>
   <si>
@@ -2797,24 +2800,21 @@
     <t>vana 1.1</t>
   </si>
   <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>bhojana 2</t>
   </si>
   <si>
     <t>vassa 3</t>
   </si>
   <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
     <t>kusala 4</t>
   </si>
   <si>
@@ -3067,39 +3067,39 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>lasting; remaining; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
-    <t>lasting; remaining; persisting; lit. standing</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -3109,24 +3109,24 @@
     <t>this</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>arising; appearing; coming into being</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>sexual</t>
   </si>
   <si>
@@ -3157,12 +3157,12 @@
     <t>expert; skilled; able; adroit</t>
   </si>
   <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
     <t>low; inferior; deficient</t>
   </si>
   <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
@@ -3277,15 +3277,15 @@
     <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
   </si>
   <si>
+    <t>immeasurable; unlimited; limitless; boundless</t>
+  </si>
+  <si>
     <t>great; venerable; honourable; respected</t>
   </si>
   <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
-    <t>immeasurable; unlimited; limitless; boundless</t>
-  </si>
-  <si>
     <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
   </si>
   <si>
@@ -3310,6 +3310,12 @@
     <t>(of food) solid; heavy; substantial</t>
   </si>
   <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
     <t>unbroken; unfragmented; whole</t>
   </si>
   <si>
@@ -3340,42 +3346,36 @@
     <t>progressing; moving on; (comm) ending; depletion</t>
   </si>
   <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>few; not many; not much</t>
+  </si>
+  <si>
+    <t>fit (for); capable (of); suitable (for)</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>few; not many; not much</t>
-  </si>
-  <si>
-    <t>fit (for); capable (of); suitable (for)</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>essential; substantial; valuable; sound</t>
   </si>
   <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
     <t>fine; subtle; refined</t>
   </si>
   <si>
@@ -3598,66 +3598,66 @@
     <t>is called; is named; is said to be</t>
   </si>
   <si>
+    <t>is said to be; is called</t>
+  </si>
+  <si>
+    <t>is abandoned; is given up</t>
+  </si>
+  <si>
+    <t>dissolves; finishes; stops; ceases; vanishes</t>
+  </si>
+  <si>
+    <t>is known; is evident; is perceived</t>
+  </si>
+  <si>
+    <t>arises (in); is produced (from)</t>
+  </si>
+  <si>
+    <t>is released (from); is free (from)</t>
+  </si>
+  <si>
+    <t>exists (in); is found (in); is present (in)</t>
+  </si>
+  <si>
+    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
+  </si>
+  <si>
+    <t>is free (from); becomes free (from); is released (from)</t>
+  </si>
+  <si>
+    <t>is clearly known; is evident; is perceived; there is</t>
+  </si>
+  <si>
+    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
+  </si>
+  <si>
+    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
+  </si>
+  <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
+    <t>is hurt; is killed; is destroyed</t>
+  </si>
+  <si>
+    <t>seems; lit. is seen</t>
+  </si>
+  <si>
+    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
+  </si>
+  <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
-    <t>is said to be; is called</t>
-  </si>
-  <si>
-    <t>is abandoned; is given up</t>
-  </si>
-  <si>
-    <t>dissolves; finishes; stops; ceases; vanishes</t>
-  </si>
-  <si>
-    <t>is known; is evident; is perceived</t>
-  </si>
-  <si>
-    <t>arises (in); is produced (from)</t>
-  </si>
-  <si>
-    <t>is released (from); is free (from)</t>
-  </si>
-  <si>
-    <t>exists (in); is found (in); is present (in)</t>
-  </si>
-  <si>
     <t>is perturbed; is shaken; is agitated; is anguished</t>
   </si>
   <si>
-    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
-  </si>
-  <si>
-    <t>is free (from); becomes free (from); is released (from)</t>
-  </si>
-  <si>
-    <t>is clearly known; is evident; is perceived; there is</t>
-  </si>
-  <si>
-    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
-  </si>
-  <si>
-    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
-  </si>
-  <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>disappears; vanishes; perishes; is destroyed</t>
   </si>
   <si>
-    <t>is hurt; is killed; is destroyed</t>
-  </si>
-  <si>
-    <t>seems; lit. is seen</t>
-  </si>
-  <si>
-    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
-  </si>
-  <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>moreover; and so; but; or; however</t>
   </si>
   <si>
@@ -3694,12 +3694,15 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
     <t>away (from); far away (from); distant (from)</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
     <t>externally; outwardly</t>
   </si>
   <si>
@@ -3712,9 +3715,6 @@
     <t>again; once more</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -3742,6 +3742,9 @@
     <t>even so much as; even with; even down to; with as little as</t>
   </si>
   <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally</t>
   </si>
   <si>
@@ -3784,9 +3787,6 @@
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
     <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
   </si>
   <si>
@@ -3823,15 +3823,15 @@
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
     <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
   </si>
   <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
     <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
   </si>
   <si>
@@ -3874,60 +3874,60 @@
     <t>preach (to); teaches (to); explains (to)</t>
   </si>
   <si>
+    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
+  </si>
+  <si>
+    <t>honour; reveres; hold in high esteem</t>
+  </si>
+  <si>
+    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
+  </si>
+  <si>
+    <t>is evident; lit. makes itself known</t>
+  </si>
+  <si>
+    <t>fills up; fills out; lit. causes to fill</t>
+  </si>
+  <si>
+    <t>soaks; drenches; lit. makes flow around</t>
+  </si>
+  <si>
+    <t>inclines (towards); bends (towards); directs (towards)</t>
+  </si>
+  <si>
+    <t>explains; illustrates; illuminates; reveals; teaches</t>
+  </si>
+  <si>
+    <t>cleans (from); purifies (of)</t>
+  </si>
+  <si>
+    <t>stretches out; straightens; extends; lit. causes to go forward</t>
+  </si>
+  <si>
+    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
+  </si>
+  <si>
+    <t>builds; has constructed; lit. causes to build</t>
+  </si>
+  <si>
+    <t>prepares; arranges; forms; fashions; constructs</t>
+  </si>
+  <si>
+    <t>generates; produces; lit. causes to be born</t>
+  </si>
+  <si>
+    <t>cultivates; develops; lit. causes to become</t>
+  </si>
+  <si>
+    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
+  </si>
+  <si>
+    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
+  </si>
+  <si>
     <t>banishes (from); exiles (from); drives away (from); lit. causes to leave</t>
   </si>
   <si>
-    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
-  </si>
-  <si>
-    <t>honour; reveres; hold in high esteem</t>
-  </si>
-  <si>
-    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
-  </si>
-  <si>
-    <t>is evident; lit. makes itself known</t>
-  </si>
-  <si>
-    <t>fills up; fills out; lit. causes to fill</t>
-  </si>
-  <si>
-    <t>soaks; drenches; lit. makes flow around</t>
-  </si>
-  <si>
-    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
-  </si>
-  <si>
-    <t>inclines (towards); bends (towards); directs (towards)</t>
-  </si>
-  <si>
-    <t>explains; illustrates; illuminates; reveals; teaches</t>
-  </si>
-  <si>
-    <t>cleans (from); purifies (of)</t>
-  </si>
-  <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
-    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
-  </si>
-  <si>
-    <t>builds; has constructed; lit. causes to build</t>
-  </si>
-  <si>
-    <t>prepares; arranges; forms; fashions; constructs</t>
-  </si>
-  <si>
-    <t>cultivates; develops; lit. causes to become</t>
-  </si>
-  <si>
-    <t>generates; produces; lit. causes to be born</t>
-  </si>
-  <si>
-    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
-  </si>
-  <si>
     <t>was careless (about); neglected; was negligent (with); was heedless (about)</t>
   </si>
   <si>
@@ -3943,504 +3943,504 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>purpose; use; function</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>purpose; use; function</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>man of the ruling class; young noble</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
   </si>
   <si>
     <t>middle</t>
   </si>
   <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
     <t>Sakyan; of the Sakyan people</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>prince</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>man of the ruling class; young noble</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
     <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
@@ -4486,186 +4486,186 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>reflects; considers; discerns</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>reflects; considers; discerns</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -4684,12 +4684,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -4714,36 +4714,36 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
+    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -4756,6 +4756,9 @@
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -4765,36 +4768,33 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>gets angry (with); lit. releases</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>gets angry (with); lit. releases</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -4852,18 +4852,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -4876,6 +4876,9 @@
     <t>fire</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -4894,9 +4897,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -4918,12 +4918,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -4963,6 +4963,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -4984,9 +4987,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5053,6 +5053,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -5062,24 +5065,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -5179,27 +5179,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>in future</t>
   </si>
   <si>
@@ -5215,36 +5218,33 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -5263,12 +5263,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -5290,15 +5290,15 @@
     <t>could see; would see</t>
   </si>
   <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
     <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
   </si>
   <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -5329,6 +5329,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -5377,12 +5383,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -5425,48 +5425,48 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having suffused; having pervaded; having filled</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
+    <t>having seen</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having suffused; having pervaded; having filled</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
-    <t>having seen</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -5491,24 +5491,24 @@
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>separating (from); aloof (from)</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>attaching; clinging; adhering; sticking</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
-    <t>separating (from); aloof (from)</t>
-  </si>
-  <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
-  </si>
-  <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
@@ -5533,21 +5533,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -5557,45 +5557,45 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that case; in that regard; in this matter; in this connection</t>
+  </si>
+  <si>
+    <t>here; now; in this world</t>
+  </si>
+  <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
+    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>in that case; in that regard; in this matter; in this connection</t>
-  </si>
-  <si>
-    <t>here; now; in this world</t>
-  </si>
-  <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -5737,6 +5737,9 @@
     <t>making effort; exerting; striving; trying (to)</t>
   </si>
   <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
     <t>cloth; clothes; robe</t>
   </si>
   <si>
@@ -5797,22 +5800,19 @@
     <t>wood; forest; grove</t>
   </si>
   <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
     <t>eating; taking food</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
   </si>
   <si>
     <t>good; benefit; merit; good deed; doing good</t>
@@ -10386,7 +10386,7 @@
         <v>997</v>
       </c>
       <c r="C224" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="D224" t="s">
         <v>997</v>
@@ -10403,7 +10403,7 @@
         <v>997</v>
       </c>
       <c r="C225" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D225" t="s">
         <v>997</v>
@@ -10420,7 +10420,7 @@
         <v>997</v>
       </c>
       <c r="C226" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D226" t="s">
         <v>997</v>
@@ -10437,7 +10437,7 @@
         <v>997</v>
       </c>
       <c r="C227" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D227" t="s">
         <v>997</v>
@@ -10454,7 +10454,7 @@
         <v>997</v>
       </c>
       <c r="C228" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D228" t="s">
         <v>997</v>
@@ -10471,7 +10471,7 @@
         <v>997</v>
       </c>
       <c r="C229" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D229" t="s">
         <v>997</v>
@@ -10488,7 +10488,7 @@
         <v>997</v>
       </c>
       <c r="C230" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D230" t="s">
         <v>997</v>
@@ -10505,7 +10505,7 @@
         <v>997</v>
       </c>
       <c r="C231" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D231" t="s">
         <v>997</v>
@@ -10522,7 +10522,7 @@
         <v>997</v>
       </c>
       <c r="C232" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D232" t="s">
         <v>997</v>
@@ -10539,7 +10539,7 @@
         <v>997</v>
       </c>
       <c r="C233" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D233" t="s">
         <v>997</v>
@@ -10556,7 +10556,7 @@
         <v>997</v>
       </c>
       <c r="C234" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D234" t="s">
         <v>997</v>
@@ -10573,7 +10573,7 @@
         <v>997</v>
       </c>
       <c r="C235" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D235" t="s">
         <v>997</v>
@@ -10590,7 +10590,7 @@
         <v>997</v>
       </c>
       <c r="C236" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D236" t="s">
         <v>997</v>
@@ -10607,7 +10607,7 @@
         <v>997</v>
       </c>
       <c r="C237" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D237" t="s">
         <v>997</v>
@@ -10624,7 +10624,7 @@
         <v>997</v>
       </c>
       <c r="C238" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D238" t="s">
         <v>997</v>
@@ -10641,7 +10641,7 @@
         <v>997</v>
       </c>
       <c r="C239" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D239" t="s">
         <v>997</v>
@@ -10658,7 +10658,7 @@
         <v>997</v>
       </c>
       <c r="C240" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D240" t="s">
         <v>997</v>
@@ -10675,7 +10675,7 @@
         <v>997</v>
       </c>
       <c r="C241" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D241" t="s">
         <v>997</v>
@@ -10692,7 +10692,7 @@
         <v>997</v>
       </c>
       <c r="C242" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D242" t="s">
         <v>997</v>
@@ -10709,7 +10709,7 @@
         <v>997</v>
       </c>
       <c r="C243" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D243" t="s">
         <v>997</v>
@@ -10726,7 +10726,7 @@
         <v>997</v>
       </c>
       <c r="C244" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D244" t="s">
         <v>997</v>
@@ -10743,7 +10743,7 @@
         <v>997</v>
       </c>
       <c r="C245" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D245" t="s">
         <v>997</v>
@@ -10760,7 +10760,7 @@
         <v>997</v>
       </c>
       <c r="C246" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D246" t="s">
         <v>997</v>
@@ -10777,7 +10777,7 @@
         <v>997</v>
       </c>
       <c r="C247" t="s">
-        <v>1232</v>
+        <v>1255</v>
       </c>
       <c r="D247" t="s">
         <v>997</v>
@@ -14415,7 +14415,7 @@
         <v>995</v>
       </c>
       <c r="C461" t="s">
-        <v>1469</v>
+        <v>1335</v>
       </c>
       <c r="D461" t="s">
         <v>2000</v>
@@ -14432,7 +14432,7 @@
         <v>995</v>
       </c>
       <c r="C462" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D462" t="s">
         <v>2000</v>
@@ -14449,7 +14449,7 @@
         <v>995</v>
       </c>
       <c r="C463" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D463" t="s">
         <v>2000</v>
@@ -14466,7 +14466,7 @@
         <v>995</v>
       </c>
       <c r="C464" t="s">
-        <v>1337</v>
+        <v>1471</v>
       </c>
       <c r="D464" t="s">
         <v>2000</v>
@@ -14786,7 +14786,7 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C483" t="s">
         <v>1490</v>
@@ -14939,7 +14939,7 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C492" t="s">
         <v>1499</v>
@@ -19787,7 +19787,7 @@
         <v>1005</v>
       </c>
       <c r="C777" t="s">
-        <v>1312</v>
+        <v>1783</v>
       </c>
       <c r="D777" t="s">
         <v>2022</v>
@@ -19804,7 +19804,7 @@
         <v>1005</v>
       </c>
       <c r="C778" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D778" t="s">
         <v>2022</v>
@@ -19821,7 +19821,7 @@
         <v>1005</v>
       </c>
       <c r="C779" t="s">
-        <v>1784</v>
+        <v>1311</v>
       </c>
       <c r="D779" t="s">
         <v>2022</v>
@@ -20331,7 +20331,7 @@
         <v>1002</v>
       </c>
       <c r="C809" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="D809" t="s">
         <v>1002</v>
@@ -20348,7 +20348,7 @@
         <v>1002</v>
       </c>
       <c r="C810" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="D810" t="s">
         <v>1002</v>
@@ -21079,7 +21079,7 @@
         <v>997</v>
       </c>
       <c r="C853" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="D853" t="s">
         <v>997</v>
@@ -21096,7 +21096,7 @@
         <v>997</v>
       </c>
       <c r="C854" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="D854" t="s">
         <v>997</v>

--- a/pali-class/vocab/vocab-class17.xlsx
+++ b/pali-class/vocab/vocab-class17.xlsx
@@ -262,9 +262,6 @@
     <t>appamāṇa</t>
   </si>
   <si>
-    <t>maha 2</t>
-  </si>
-  <si>
     <t>vipula 1</t>
   </si>
   <si>
@@ -514,12 +511,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -2596,6 +2593,9 @@
     <t>kuto 1</t>
   </si>
   <si>
+    <t>kuto 3</t>
+  </si>
+  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2632,12 +2632,12 @@
     <t>atthāya 2</t>
   </si>
   <si>
+    <t>piṇḍāya</t>
+  </si>
+  <si>
     <t>atthāya 1</t>
   </si>
   <si>
-    <t>piṇḍāya</t>
-  </si>
-  <si>
     <t>tiṇa 1</t>
   </si>
   <si>
@@ -3280,9 +3280,6 @@
     <t>immeasurable; unlimited; limitless; boundless</t>
   </si>
   <si>
-    <t>great; venerable; honourable; respected</t>
-  </si>
-  <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
@@ -3532,12 +3529,12 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
   </si>
   <si>
-    <t>tenth (10th)</t>
-  </si>
-  <si>
     <t>fifth (5th)</t>
   </si>
   <si>
@@ -5596,6 +5593,9 @@
     <t>from where?; where?</t>
   </si>
   <si>
+    <t>let alone; not to mention; what to say of; lit. from where</t>
+  </si>
+  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -5632,10 +5632,10 @@
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
+    <t>for alms; to collect alms food</t>
+  </si>
+  <si>
     <t>for the purpose (of); for the sake (of); for the benefit (of)</t>
-  </si>
-  <si>
-    <t>for alms; to collect alms food</t>
   </si>
   <si>
     <t>grass; straw</t>
@@ -8479,13 +8479,13 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C112" t="s">
         <v>1121</v>
       </c>
       <c r="D112" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E112" t="s">
         <v>2058</v>
@@ -8496,13 +8496,13 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C113" t="s">
         <v>1122</v>
       </c>
       <c r="D113" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E113" t="s">
         <v>2058</v>
@@ -8649,7 +8649,7 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C122" t="s">
         <v>1131</v>
@@ -8666,7 +8666,7 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C123" t="s">
         <v>1132</v>
@@ -9091,13 +9091,13 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C148" t="s">
         <v>1157</v>
       </c>
       <c r="D148" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E148" t="s">
         <v>2058</v>
@@ -9114,7 +9114,7 @@
         <v>1158</v>
       </c>
       <c r="D149" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E149" t="s">
         <v>2058</v>
@@ -9131,7 +9131,7 @@
         <v>1159</v>
       </c>
       <c r="D150" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E150" t="s">
         <v>2058</v>
@@ -9148,7 +9148,7 @@
         <v>1160</v>
       </c>
       <c r="D151" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E151" t="s">
         <v>2058</v>
@@ -9159,13 +9159,13 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C152" t="s">
         <v>1161</v>
       </c>
       <c r="D152" t="s">
-        <v>2005</v>
+        <v>997</v>
       </c>
       <c r="E152" t="s">
         <v>2058</v>
@@ -9210,13 +9210,13 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C155" t="s">
         <v>1164</v>
       </c>
       <c r="D155" t="s">
-        <v>997</v>
+        <v>2006</v>
       </c>
       <c r="E155" t="s">
         <v>2058</v>
@@ -9267,7 +9267,7 @@
         <v>1167</v>
       </c>
       <c r="D158" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E158" t="s">
         <v>2058</v>
@@ -9301,7 +9301,7 @@
         <v>1169</v>
       </c>
       <c r="D160" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E160" t="s">
         <v>2058</v>
@@ -9312,16 +9312,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="C161" t="s">
         <v>1170</v>
       </c>
       <c r="D161" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E161" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -9465,13 +9465,13 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C170" t="s">
         <v>1179</v>
       </c>
       <c r="D170" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E170" t="s">
         <v>2059</v>
@@ -9573,7 +9573,7 @@
         <v>1185</v>
       </c>
       <c r="D176" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E176" t="s">
         <v>2059</v>
@@ -9607,7 +9607,7 @@
         <v>1187</v>
       </c>
       <c r="D178" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E178" t="s">
         <v>2059</v>
@@ -9624,7 +9624,7 @@
         <v>1188</v>
       </c>
       <c r="D179" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E179" t="s">
         <v>2059</v>
@@ -9641,7 +9641,7 @@
         <v>1189</v>
       </c>
       <c r="D180" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E180" t="s">
         <v>2059</v>
@@ -9658,7 +9658,7 @@
         <v>1190</v>
       </c>
       <c r="D181" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E181" t="s">
         <v>2059</v>
@@ -9675,7 +9675,7 @@
         <v>1191</v>
       </c>
       <c r="D182" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E182" t="s">
         <v>2059</v>
@@ -9686,16 +9686,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C183" t="s">
         <v>1192</v>
       </c>
       <c r="D183" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E183" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -10043,13 +10043,13 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C204" t="s">
         <v>1213</v>
       </c>
       <c r="D204" t="s">
-        <v>2017</v>
+        <v>997</v>
       </c>
       <c r="E204" t="s">
         <v>2060</v>
@@ -10369,7 +10369,7 @@
         <v>997</v>
       </c>
       <c r="C223" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="D223" t="s">
         <v>997</v>
@@ -10386,7 +10386,7 @@
         <v>997</v>
       </c>
       <c r="C224" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="D224" t="s">
         <v>997</v>
@@ -10808,13 +10808,13 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C249" t="s">
         <v>1257</v>
       </c>
       <c r="D249" t="s">
-        <v>997</v>
+        <v>1998</v>
       </c>
       <c r="E249" t="s">
         <v>2060</v>
@@ -10842,16 +10842,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C251" t="s">
         <v>1259</v>
       </c>
       <c r="D251" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E251" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -10876,13 +10876,13 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="C253" t="s">
         <v>1261</v>
       </c>
       <c r="D253" t="s">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="E253" t="s">
         <v>2061</v>
@@ -11063,13 +11063,13 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C264" t="s">
         <v>1272</v>
       </c>
       <c r="D264" t="s">
-        <v>2018</v>
+        <v>1002</v>
       </c>
       <c r="E264" t="s">
         <v>2061</v>
@@ -11199,13 +11199,13 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C272" t="s">
         <v>1280</v>
       </c>
       <c r="D272" t="s">
-        <v>1002</v>
+        <v>2017</v>
       </c>
       <c r="E272" t="s">
         <v>2061</v>
@@ -11216,13 +11216,13 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C273" t="s">
         <v>1281</v>
       </c>
       <c r="D273" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E273" t="s">
         <v>2061</v>
@@ -11233,13 +11233,13 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C274" t="s">
         <v>1282</v>
       </c>
       <c r="D274" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E274" t="s">
         <v>2061</v>
@@ -11590,13 +11590,13 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C295" t="s">
         <v>1303</v>
       </c>
       <c r="D295" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E295" t="s">
         <v>2061</v>
@@ -11607,13 +11607,13 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C296" t="s">
         <v>1304</v>
       </c>
       <c r="D296" t="s">
-        <v>2021</v>
+        <v>1004</v>
       </c>
       <c r="E296" t="s">
         <v>2061</v>
@@ -11624,13 +11624,13 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C297" t="s">
         <v>1305</v>
       </c>
       <c r="D297" t="s">
-        <v>1004</v>
+        <v>2022</v>
       </c>
       <c r="E297" t="s">
         <v>2061</v>
@@ -11641,16 +11641,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C298" t="s">
         <v>1306</v>
       </c>
       <c r="D298" t="s">
-        <v>2022</v>
+        <v>2000</v>
       </c>
       <c r="E298" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -14398,7 +14398,7 @@
         <v>995</v>
       </c>
       <c r="C460" t="s">
-        <v>1468</v>
+        <v>1334</v>
       </c>
       <c r="D460" t="s">
         <v>2000</v>
@@ -14415,7 +14415,7 @@
         <v>995</v>
       </c>
       <c r="C461" t="s">
-        <v>1335</v>
+        <v>1468</v>
       </c>
       <c r="D461" t="s">
         <v>2000</v>
@@ -14605,7 +14605,7 @@
         <v>1479</v>
       </c>
       <c r="D472" t="s">
-        <v>2000</v>
+        <v>2023</v>
       </c>
       <c r="E472" t="s">
         <v>2062</v>
@@ -14639,10 +14639,10 @@
         <v>1481</v>
       </c>
       <c r="D474" t="s">
-        <v>2023</v>
+        <v>2000</v>
       </c>
       <c r="E474" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -14684,13 +14684,13 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C477" t="s">
         <v>1484</v>
       </c>
       <c r="D477" t="s">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E477" t="s">
         <v>2063</v>
@@ -14922,7 +14922,7 @@
         <v>494</v>
       </c>
       <c r="B491" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C491" t="s">
         <v>1498</v>
@@ -14939,7 +14939,7 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C492" t="s">
         <v>1499</v>
@@ -15755,7 +15755,7 @@
         <v>543</v>
       </c>
       <c r="B540" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C540" t="s">
         <v>1547</v>
@@ -15772,7 +15772,7 @@
         <v>544</v>
       </c>
       <c r="B541" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C541" t="s">
         <v>1548</v>
@@ -15795,7 +15795,7 @@
         <v>1549</v>
       </c>
       <c r="D542" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E542" t="s">
         <v>2063</v>
@@ -15948,7 +15948,7 @@
         <v>1558</v>
       </c>
       <c r="D551" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E551" t="s">
         <v>2063</v>
@@ -15959,7 +15959,7 @@
         <v>555</v>
       </c>
       <c r="B552" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C552" t="s">
         <v>1559</v>
@@ -15976,13 +15976,13 @@
         <v>556</v>
       </c>
       <c r="B553" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C553" t="s">
         <v>1560</v>
       </c>
       <c r="D553" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E553" t="s">
         <v>2063</v>
@@ -15999,7 +15999,7 @@
         <v>1561</v>
       </c>
       <c r="D554" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E554" t="s">
         <v>2063</v>
@@ -16044,7 +16044,7 @@
         <v>560</v>
       </c>
       <c r="B557" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C557" t="s">
         <v>1564</v>
@@ -16061,7 +16061,7 @@
         <v>561</v>
       </c>
       <c r="B558" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C558" t="s">
         <v>1565</v>
@@ -16217,7 +16217,7 @@
         <v>1000</v>
       </c>
       <c r="C567" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D567" t="s">
         <v>2026</v>
@@ -16234,7 +16234,7 @@
         <v>1000</v>
       </c>
       <c r="C568" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="D568" t="s">
         <v>2026</v>
@@ -16248,16 +16248,16 @@
         <v>572</v>
       </c>
       <c r="B569" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C569" t="s">
         <v>1575</v>
       </c>
       <c r="D569" t="s">
-        <v>2026</v>
+        <v>2000</v>
       </c>
       <c r="E569" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -16282,13 +16282,13 @@
         <v>574</v>
       </c>
       <c r="B571" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C571" t="s">
         <v>1577</v>
       </c>
       <c r="D571" t="s">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E571" t="s">
         <v>2064</v>
@@ -16543,7 +16543,7 @@
         <v>1592</v>
       </c>
       <c r="D586" t="s">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="E586" t="s">
         <v>2064</v>
@@ -16588,7 +16588,7 @@
         <v>592</v>
       </c>
       <c r="B589" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C589" t="s">
         <v>1595</v>
@@ -16605,7 +16605,7 @@
         <v>593</v>
       </c>
       <c r="B590" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C590" t="s">
         <v>1596</v>
@@ -16656,13 +16656,13 @@
         <v>596</v>
       </c>
       <c r="B593" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C593" t="s">
         <v>1599</v>
       </c>
       <c r="D593" t="s">
-        <v>2027</v>
+        <v>2019</v>
       </c>
       <c r="E593" t="s">
         <v>2064</v>
@@ -16679,7 +16679,7 @@
         <v>1600</v>
       </c>
       <c r="D594" t="s">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="E594" t="s">
         <v>2064</v>
@@ -16707,13 +16707,13 @@
         <v>599</v>
       </c>
       <c r="B596" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C596" t="s">
         <v>1602</v>
       </c>
       <c r="D596" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="E596" t="s">
         <v>2064</v>
@@ -16741,7 +16741,7 @@
         <v>601</v>
       </c>
       <c r="B598" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C598" t="s">
         <v>1604</v>
@@ -16775,13 +16775,13 @@
         <v>603</v>
       </c>
       <c r="B600" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C600" t="s">
         <v>1606</v>
       </c>
       <c r="D600" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="E600" t="s">
         <v>2064</v>
@@ -16928,13 +16928,13 @@
         <v>612</v>
       </c>
       <c r="B609" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="C609" t="s">
         <v>1615</v>
       </c>
       <c r="D609" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="E609" t="s">
         <v>2064</v>
@@ -17115,13 +17115,13 @@
         <v>623</v>
       </c>
       <c r="B620" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C620" t="s">
         <v>1626</v>
       </c>
       <c r="D620" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="E620" t="s">
         <v>2064</v>
@@ -17132,7 +17132,7 @@
         <v>624</v>
       </c>
       <c r="B621" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C621" t="s">
         <v>1627</v>
@@ -17149,13 +17149,13 @@
         <v>625</v>
       </c>
       <c r="B622" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C622" t="s">
         <v>1628</v>
       </c>
       <c r="D622" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="E622" t="s">
         <v>2064</v>
@@ -17200,13 +17200,13 @@
         <v>628</v>
       </c>
       <c r="B625" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C625" t="s">
         <v>1631</v>
       </c>
       <c r="D625" t="s">
-        <v>2025</v>
+        <v>2032</v>
       </c>
       <c r="E625" t="s">
         <v>2064</v>
@@ -17274,7 +17274,7 @@
         <v>1635</v>
       </c>
       <c r="D629" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="E629" t="s">
         <v>2064</v>
@@ -17302,16 +17302,16 @@
         <v>634</v>
       </c>
       <c r="B631" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="C631" t="s">
         <v>1637</v>
       </c>
       <c r="D631" t="s">
-        <v>2033</v>
+        <v>2000</v>
       </c>
       <c r="E631" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -17421,13 +17421,13 @@
         <v>641</v>
       </c>
       <c r="B638" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C638" t="s">
         <v>1644</v>
       </c>
       <c r="D638" t="s">
-        <v>2000</v>
+        <v>2034</v>
       </c>
       <c r="E638" t="s">
         <v>2065</v>
@@ -17625,13 +17625,13 @@
         <v>653</v>
       </c>
       <c r="B650" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="C650" t="s">
         <v>1656</v>
       </c>
       <c r="D650" t="s">
-        <v>2034</v>
+        <v>2017</v>
       </c>
       <c r="E650" t="s">
         <v>2065</v>
@@ -17648,7 +17648,7 @@
         <v>1657</v>
       </c>
       <c r="D651" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E651" t="s">
         <v>2065</v>
@@ -17659,13 +17659,13 @@
         <v>655</v>
       </c>
       <c r="B652" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C652" t="s">
         <v>1658</v>
       </c>
       <c r="D652" t="s">
-        <v>2020</v>
+        <v>997</v>
       </c>
       <c r="E652" t="s">
         <v>2065</v>
@@ -17778,13 +17778,13 @@
         <v>662</v>
       </c>
       <c r="B659" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="C659" t="s">
         <v>1665</v>
       </c>
       <c r="D659" t="s">
-        <v>997</v>
+        <v>2035</v>
       </c>
       <c r="E659" t="s">
         <v>2065</v>
@@ -17863,13 +17863,13 @@
         <v>667</v>
       </c>
       <c r="B664" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="C664" t="s">
         <v>1670</v>
       </c>
       <c r="D664" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="E664" t="s">
         <v>2065</v>
@@ -17880,13 +17880,13 @@
         <v>668</v>
       </c>
       <c r="B665" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="C665" t="s">
         <v>1671</v>
       </c>
       <c r="D665" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="E665" t="s">
         <v>2065</v>
@@ -17931,13 +17931,13 @@
         <v>671</v>
       </c>
       <c r="B668" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="C668" t="s">
         <v>1674</v>
       </c>
       <c r="D668" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E668" t="s">
         <v>2065</v>
@@ -18152,13 +18152,13 @@
         <v>684</v>
       </c>
       <c r="B681" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="C681" t="s">
         <v>1687</v>
       </c>
       <c r="D681" t="s">
-        <v>2038</v>
+        <v>2026</v>
       </c>
       <c r="E681" t="s">
         <v>2065</v>
@@ -18169,13 +18169,13 @@
         <v>685</v>
       </c>
       <c r="B682" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C682" t="s">
         <v>1688</v>
       </c>
       <c r="D682" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
       <c r="E682" t="s">
         <v>2065</v>
@@ -18356,13 +18356,13 @@
         <v>696</v>
       </c>
       <c r="B693" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C693" t="s">
         <v>1699</v>
       </c>
       <c r="D693" t="s">
-        <v>2007</v>
+        <v>2039</v>
       </c>
       <c r="E693" t="s">
         <v>2065</v>
@@ -18481,10 +18481,10 @@
         <v>1706</v>
       </c>
       <c r="D700" t="s">
-        <v>2039</v>
+        <v>2000</v>
       </c>
       <c r="E700" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -18492,13 +18492,13 @@
         <v>704</v>
       </c>
       <c r="B701" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C701" t="s">
         <v>1707</v>
       </c>
       <c r="D701" t="s">
-        <v>2000</v>
+        <v>2040</v>
       </c>
       <c r="E701" t="s">
         <v>2066</v>
@@ -18594,13 +18594,13 @@
         <v>710</v>
       </c>
       <c r="B707" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C707" t="s">
         <v>1713</v>
       </c>
       <c r="D707" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="E707" t="s">
         <v>2066</v>
@@ -18668,7 +18668,7 @@
         <v>1717</v>
       </c>
       <c r="D711" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E711" t="s">
         <v>2066</v>
@@ -18753,7 +18753,7 @@
         <v>1722</v>
       </c>
       <c r="D716" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="E716" t="s">
         <v>2066</v>
@@ -18798,13 +18798,13 @@
         <v>722</v>
       </c>
       <c r="B719" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C719" t="s">
         <v>1725</v>
       </c>
       <c r="D719" t="s">
-        <v>2043</v>
+        <v>2017</v>
       </c>
       <c r="E719" t="s">
         <v>2066</v>
@@ -18815,13 +18815,13 @@
         <v>723</v>
       </c>
       <c r="B720" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C720" t="s">
         <v>1726</v>
       </c>
       <c r="D720" t="s">
-        <v>2017</v>
+        <v>997</v>
       </c>
       <c r="E720" t="s">
         <v>2066</v>
@@ -19019,13 +19019,13 @@
         <v>735</v>
       </c>
       <c r="B732" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C732" t="s">
         <v>1738</v>
       </c>
       <c r="D732" t="s">
-        <v>997</v>
+        <v>2044</v>
       </c>
       <c r="E732" t="s">
         <v>2066</v>
@@ -19087,13 +19087,13 @@
         <v>739</v>
       </c>
       <c r="B736" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C736" t="s">
         <v>1742</v>
       </c>
       <c r="D736" t="s">
-        <v>2044</v>
+        <v>2007</v>
       </c>
       <c r="E736" t="s">
         <v>2066</v>
@@ -19110,7 +19110,7 @@
         <v>1743</v>
       </c>
       <c r="D737" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E737" t="s">
         <v>2066</v>
@@ -19155,13 +19155,13 @@
         <v>743</v>
       </c>
       <c r="B740" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C740" t="s">
         <v>1746</v>
       </c>
       <c r="D740" t="s">
-        <v>2008</v>
+        <v>2045</v>
       </c>
       <c r="E740" t="s">
         <v>2066</v>
@@ -19195,10 +19195,10 @@
         <v>1748</v>
       </c>
       <c r="D742" t="s">
-        <v>2045</v>
+        <v>2000</v>
       </c>
       <c r="E742" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -19223,13 +19223,13 @@
         <v>747</v>
       </c>
       <c r="B744" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C744" t="s">
         <v>1750</v>
       </c>
       <c r="D744" t="s">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E744" t="s">
         <v>2067</v>
@@ -19240,13 +19240,13 @@
         <v>748</v>
       </c>
       <c r="B745" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="C745" t="s">
         <v>1751</v>
       </c>
       <c r="D745" t="s">
-        <v>2017</v>
+        <v>2046</v>
       </c>
       <c r="E745" t="s">
         <v>2067</v>
@@ -19393,13 +19393,13 @@
         <v>757</v>
       </c>
       <c r="B754" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="C754" t="s">
         <v>1760</v>
       </c>
       <c r="D754" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="E754" t="s">
         <v>2067</v>
@@ -19410,13 +19410,13 @@
         <v>758</v>
       </c>
       <c r="B755" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="C755" t="s">
         <v>1761</v>
       </c>
       <c r="D755" t="s">
-        <v>2047</v>
+        <v>2031</v>
       </c>
       <c r="E755" t="s">
         <v>2067</v>
@@ -19433,7 +19433,7 @@
         <v>1762</v>
       </c>
       <c r="D756" t="s">
-        <v>2031</v>
+        <v>2048</v>
       </c>
       <c r="E756" t="s">
         <v>2067</v>
@@ -19450,7 +19450,7 @@
         <v>1763</v>
       </c>
       <c r="D757" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="E757" t="s">
         <v>2067</v>
@@ -19461,13 +19461,13 @@
         <v>761</v>
       </c>
       <c r="B758" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C758" t="s">
         <v>1764</v>
       </c>
       <c r="D758" t="s">
-        <v>2049</v>
+        <v>2022</v>
       </c>
       <c r="E758" t="s">
         <v>2067</v>
@@ -19804,7 +19804,7 @@
         <v>1005</v>
       </c>
       <c r="C778" t="s">
-        <v>1784</v>
+        <v>1310</v>
       </c>
       <c r="D778" t="s">
         <v>2022</v>
@@ -19821,7 +19821,7 @@
         <v>1005</v>
       </c>
       <c r="C779" t="s">
-        <v>1311</v>
+        <v>1784</v>
       </c>
       <c r="D779" t="s">
         <v>2022</v>
@@ -20039,16 +20039,16 @@
         <v>795</v>
       </c>
       <c r="B792" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C792" t="s">
         <v>1797</v>
       </c>
       <c r="D792" t="s">
-        <v>2022</v>
+        <v>2000</v>
       </c>
       <c r="E792" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -20073,13 +20073,13 @@
         <v>797</v>
       </c>
       <c r="B794" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="C794" t="s">
         <v>1799</v>
       </c>
       <c r="D794" t="s">
-        <v>2000</v>
+        <v>1002</v>
       </c>
       <c r="E794" t="s">
         <v>2068</v>
@@ -20314,7 +20314,7 @@
         <v>1002</v>
       </c>
       <c r="C808" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D808" t="s">
         <v>1002</v>
@@ -20331,7 +20331,7 @@
         <v>1002</v>
       </c>
       <c r="C809" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="D809" t="s">
         <v>1002</v>
@@ -20379,13 +20379,13 @@
         <v>815</v>
       </c>
       <c r="B812" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C812" t="s">
         <v>1816</v>
       </c>
       <c r="D812" t="s">
-        <v>1002</v>
+        <v>2050</v>
       </c>
       <c r="E812" t="s">
         <v>2068</v>
@@ -20413,13 +20413,13 @@
         <v>817</v>
       </c>
       <c r="B814" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C814" t="s">
         <v>1818</v>
       </c>
       <c r="D814" t="s">
-        <v>2050</v>
+        <v>1009</v>
       </c>
       <c r="E814" t="s">
         <v>2068</v>
@@ -20617,13 +20617,13 @@
         <v>829</v>
       </c>
       <c r="B826" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C826" t="s">
         <v>1830</v>
       </c>
       <c r="D826" t="s">
-        <v>1009</v>
+        <v>2051</v>
       </c>
       <c r="E826" t="s">
         <v>2068</v>
@@ -20872,13 +20872,13 @@
         <v>844</v>
       </c>
       <c r="B841" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C841" t="s">
         <v>1845</v>
       </c>
       <c r="D841" t="s">
-        <v>2051</v>
+        <v>997</v>
       </c>
       <c r="E841" t="s">
         <v>2068</v>
@@ -21062,7 +21062,7 @@
         <v>997</v>
       </c>
       <c r="C852" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="D852" t="s">
         <v>997</v>
@@ -21079,7 +21079,7 @@
         <v>997</v>
       </c>
       <c r="C853" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="D853" t="s">
         <v>997</v>

--- a/pali-class/vocab/vocab-class17.xlsx
+++ b/pali-class/vocab/vocab-class17.xlsx
@@ -49,39 +49,39 @@
     <t>amu</t>
   </si>
   <si>
+    <t>jānanta</t>
+  </si>
+  <si>
     <t>passanta 1</t>
   </si>
   <si>
-    <t>jānanta</t>
-  </si>
-  <si>
     <t>samanupassanta</t>
   </si>
   <si>
     <t>tiṭṭhanta 1</t>
   </si>
   <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
     <t>anussaranta</t>
   </si>
   <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>tiṭṭhanta 2</t>
   </si>
   <si>
+    <t>apassanta</t>
+  </si>
+  <si>
     <t>ajānanta</t>
   </si>
   <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>apassanta</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>cavamāna</t>
   </si>
   <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>caramāna</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
     <t>uppajjamāna</t>
   </si>
   <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
@@ -190,165 +190,165 @@
     <t>aparikkamana</t>
   </si>
   <si>
+    <t>vūpakaṭṭha</t>
+  </si>
+  <si>
+    <t>anuttara</t>
+  </si>
+  <si>
+    <t>sugata 3</t>
+  </si>
+  <si>
+    <t>anatta 1</t>
+  </si>
+  <si>
+    <t>dhammika 2</t>
+  </si>
+  <si>
+    <t>sata 1.1</t>
+  </si>
+  <si>
+    <t>majjhima 1</t>
+  </si>
+  <si>
+    <t>purima 1</t>
+  </si>
+  <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
+    <t>manāpa 1</t>
+  </si>
+  <si>
+    <t>piya 1</t>
+  </si>
+  <si>
+    <t>sukara</t>
+  </si>
+  <si>
+    <t>byatta</t>
+  </si>
+  <si>
+    <t>agilāna 1</t>
+  </si>
+  <si>
+    <t>dukkha 2</t>
+  </si>
+  <si>
+    <t>pāṭikaṅkha</t>
+  </si>
+  <si>
+    <t>avera 1</t>
+  </si>
+  <si>
+    <t>iccha</t>
+  </si>
+  <si>
+    <t>seṭṭha 1</t>
+  </si>
+  <si>
+    <t>sacca 1</t>
+  </si>
+  <si>
+    <t>sukka 1</t>
+  </si>
+  <si>
+    <t>vipula 1</t>
+  </si>
+  <si>
+    <t>anavajja 1</t>
+  </si>
+  <si>
+    <t>subhāsita 1</t>
+  </si>
+  <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
+    <t>sampajāna 1</t>
+  </si>
+  <si>
+    <t>sukha 1</t>
+  </si>
+  <si>
+    <t>animitta 1</t>
+  </si>
+  <si>
+    <t>bhūta 1</t>
+  </si>
+  <si>
+    <t>oḷārika 2</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
+    <t>akhaṇḍa</t>
+  </si>
+  <si>
+    <t>akusala 1</t>
+  </si>
+  <si>
+    <t>sagga 1.1</t>
+  </si>
+  <si>
+    <t>uttama 1</t>
+  </si>
+  <si>
+    <t>abbhuta 1</t>
+  </si>
+  <si>
+    <t>acchariya 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>uḷāra 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
     <t>appamatta 1.1</t>
   </si>
   <si>
-    <t>vūpakaṭṭha</t>
-  </si>
-  <si>
-    <t>sugata 3</t>
-  </si>
-  <si>
-    <t>anatta 1</t>
-  </si>
-  <si>
-    <t>dhammika 2</t>
-  </si>
-  <si>
-    <t>sata 1.1</t>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>appa 1</t>
+  </si>
+  <si>
+    <t>khama 2</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>appamāṇa</t>
   </si>
   <si>
     <t>dakkhiṇa 1</t>
   </si>
   <si>
-    <t>majjhima 1</t>
-  </si>
-  <si>
-    <t>purima 1</t>
-  </si>
-  <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
-    <t>manāpa 1</t>
-  </si>
-  <si>
-    <t>piya 1</t>
-  </si>
-  <si>
-    <t>sukara</t>
-  </si>
-  <si>
-    <t>byatta</t>
-  </si>
-  <si>
-    <t>agilāna 1</t>
-  </si>
-  <si>
-    <t>dukkha 2</t>
-  </si>
-  <si>
-    <t>pāṭikaṅkha</t>
-  </si>
-  <si>
-    <t>avera 1</t>
-  </si>
-  <si>
-    <t>iccha</t>
-  </si>
-  <si>
-    <t>seṭṭha 1</t>
-  </si>
-  <si>
-    <t>sacca 1</t>
-  </si>
-  <si>
-    <t>sukka 1</t>
-  </si>
-  <si>
-    <t>anuttara</t>
-  </si>
-  <si>
-    <t>appamāṇa</t>
-  </si>
-  <si>
-    <t>vipula 1</t>
-  </si>
-  <si>
-    <t>anavajja 1</t>
-  </si>
-  <si>
-    <t>subhāsita 1</t>
-  </si>
-  <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
-    <t>sampajāna 1</t>
-  </si>
-  <si>
-    <t>sukha 1</t>
-  </si>
-  <si>
-    <t>animitta 1</t>
-  </si>
-  <si>
-    <t>bhūta 1</t>
-  </si>
-  <si>
-    <t>oḷārika 2</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
-    <t>akhaṇḍa</t>
-  </si>
-  <si>
-    <t>akusala 1</t>
-  </si>
-  <si>
-    <t>sagga 1.1</t>
-  </si>
-  <si>
-    <t>uttama 1</t>
-  </si>
-  <si>
-    <t>abbhuta 1</t>
-  </si>
-  <si>
-    <t>acchariya 1</t>
-  </si>
-  <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>uḷāra 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>appa 1</t>
-  </si>
-  <si>
-    <t>khama 2</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
     <t>panta 2</t>
   </si>
   <si>
@@ -433,36 +433,36 @@
     <t>paricita</t>
   </si>
   <si>
+    <t>gata 2</t>
+  </si>
+  <si>
+    <t>diṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>vippamutta</t>
+  </si>
+  <si>
+    <t>puṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>uppanna 1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>upaṭṭhita 1</t>
+  </si>
+  <si>
+    <t>dinna 1</t>
+  </si>
+  <si>
+    <t>paripūra 1</t>
+  </si>
+  <si>
     <t>cuta 1.1</t>
   </si>
   <si>
-    <t>gata 2</t>
-  </si>
-  <si>
-    <t>diṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>vippamutta</t>
-  </si>
-  <si>
-    <t>puṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>uppanna 1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>upaṭṭhita 1</t>
-  </si>
-  <si>
-    <t>dinna 1</t>
-  </si>
-  <si>
-    <t>paripūra 1</t>
-  </si>
-  <si>
     <t>phuṭṭha 1</t>
   </si>
   <si>
@@ -484,12 +484,12 @@
     <t>bhayato</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>anattato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>bahu</t>
   </si>
   <si>
@@ -508,6 +508,9 @@
     <t>viññū 1</t>
   </si>
   <si>
+    <t>chaṭṭha</t>
+  </si>
+  <si>
     <t>aṭṭhama 1</t>
   </si>
   <si>
@@ -532,27 +535,24 @@
     <t>paṭhama 1</t>
   </si>
   <si>
-    <t>chaṭṭha</t>
+    <t>nava 2</t>
+  </si>
+  <si>
+    <t>satta 1.1</t>
+  </si>
+  <si>
+    <t>pañca</t>
+  </si>
+  <si>
+    <t>cha 1.1</t>
+  </si>
+  <si>
+    <t>aṭṭha 1.1</t>
   </si>
   <si>
     <t>dasa 1.1</t>
   </si>
   <si>
-    <t>aṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>nava 2</t>
-  </si>
-  <si>
-    <t>satta 1.1</t>
-  </si>
-  <si>
-    <t>pañca</t>
-  </si>
-  <si>
-    <t>cha 1.1</t>
-  </si>
-  <si>
     <t>sata 2.1</t>
   </si>
   <si>
@@ -613,6 +613,9 @@
     <t>virajjati 1</t>
   </si>
   <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>parimuccati</t>
   </si>
   <si>
@@ -625,9 +628,6 @@
     <t>khajjati 1</t>
   </si>
   <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>chijjati 1</t>
   </si>
   <si>
@@ -673,105 +673,105 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>santike 1</t>
+  </si>
+  <si>
+    <t>dūre 2</t>
+  </si>
+  <si>
+    <t>bahiddhā 1</t>
+  </si>
+  <si>
+    <t>sādhukaṃ</t>
+  </si>
+  <si>
+    <t>divasaṃ</t>
+  </si>
+  <si>
+    <t>puna</t>
+  </si>
+  <si>
+    <t>sace</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>amutra</t>
+  </si>
+  <si>
+    <t>ito 2</t>
+  </si>
+  <si>
+    <t>pacchato 2</t>
+  </si>
+  <si>
+    <t>tiriyaṃ 1</t>
+  </si>
+  <si>
+    <t>adho 1</t>
+  </si>
+  <si>
+    <t>uddhaṃ 1</t>
+  </si>
+  <si>
+    <t>antamaso 1</t>
+  </si>
+  <si>
     <t>ce 1</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
-    <t>dūre 2</t>
-  </si>
-  <si>
-    <t>bahiddhā 1</t>
-  </si>
-  <si>
-    <t>sādhukaṃ</t>
-  </si>
-  <si>
-    <t>divasaṃ</t>
-  </si>
-  <si>
-    <t>puna</t>
-  </si>
-  <si>
-    <t>sace</t>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
+    <t>yoniso</t>
+  </si>
+  <si>
+    <t>ajjhattaṃ</t>
+  </si>
+  <si>
+    <t>yebhuyyena</t>
+  </si>
+  <si>
+    <t>avidūre</t>
+  </si>
+  <si>
+    <t>kira 1</t>
+  </si>
+  <si>
+    <t>ṭhānaso 1</t>
+  </si>
+  <si>
+    <t>vata 1.2</t>
+  </si>
+  <si>
+    <t>sammā 1</t>
+  </si>
+  <si>
+    <t>atha 2</t>
+  </si>
+  <si>
+    <t>eva 1</t>
+  </si>
+  <si>
+    <t>vitthārena 1</t>
+  </si>
+  <si>
+    <t>ubhato</t>
+  </si>
+  <si>
+    <t>sādhu 3</t>
+  </si>
+  <si>
+    <t>dūrato</t>
   </si>
   <si>
     <t>atha 1</t>
   </si>
   <si>
-    <t>iti</t>
-  </si>
-  <si>
-    <t>amutra</t>
-  </si>
-  <si>
-    <t>ito 2</t>
-  </si>
-  <si>
-    <t>pacchato 2</t>
-  </si>
-  <si>
-    <t>tiriyaṃ 1</t>
-  </si>
-  <si>
-    <t>adho 1</t>
-  </si>
-  <si>
-    <t>uddhaṃ 1</t>
-  </si>
-  <si>
-    <t>antamaso 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
-    <t>ajjhattaṃ</t>
-  </si>
-  <si>
-    <t>yebhuyyena</t>
-  </si>
-  <si>
-    <t>avidūre</t>
-  </si>
-  <si>
-    <t>kira 1</t>
-  </si>
-  <si>
-    <t>ṭhānaso 1</t>
-  </si>
-  <si>
-    <t>vata 1.2</t>
-  </si>
-  <si>
-    <t>sammā 1</t>
-  </si>
-  <si>
-    <t>atha 2</t>
-  </si>
-  <si>
-    <t>eva 1</t>
-  </si>
-  <si>
-    <t>vitthārena 1</t>
-  </si>
-  <si>
-    <t>ubhato</t>
-  </si>
-  <si>
-    <t>sādhu 3</t>
-  </si>
-  <si>
-    <t>dūrato</t>
-  </si>
-  <si>
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>yoniso</t>
-  </si>
-  <si>
     <t>saṃvijjamāna</t>
   </si>
   <si>
@@ -805,15 +805,15 @@
     <t>kāretabba 1</t>
   </si>
   <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
     <t>bhāvetabba</t>
   </si>
   <si>
     <t>sevitabba 2</t>
   </si>
   <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
     <t>pahātabba</t>
   </si>
   <si>
@@ -853,45 +853,45 @@
     <t>voropeti</t>
   </si>
   <si>
+    <t>sameti 1.1</t>
+  </si>
+  <si>
+    <t>māneti</t>
+  </si>
+  <si>
+    <t>upaṭṭhāpeti 2</t>
+  </si>
+  <si>
+    <t>paññāpeti 3</t>
+  </si>
+  <si>
+    <t>paripūreti 1</t>
+  </si>
+  <si>
+    <t>parisandeti</t>
+  </si>
+  <si>
+    <t>abhininnāmeti 1</t>
+  </si>
+  <si>
+    <t>pakāseti 2</t>
+  </si>
+  <si>
+    <t>parisodheti</t>
+  </si>
+  <si>
+    <t>pasāreti</t>
+  </si>
+  <si>
+    <t>atikkāmeti 2</t>
+  </si>
+  <si>
+    <t>kāreti 4</t>
+  </si>
+  <si>
     <t>deseti 1</t>
   </si>
   <si>
-    <t>sameti 1.1</t>
-  </si>
-  <si>
-    <t>māneti</t>
-  </si>
-  <si>
-    <t>upaṭṭhāpeti 2</t>
-  </si>
-  <si>
-    <t>paññāpeti 3</t>
-  </si>
-  <si>
-    <t>paripūreti 1</t>
-  </si>
-  <si>
-    <t>parisandeti</t>
-  </si>
-  <si>
-    <t>abhininnāmeti 1</t>
-  </si>
-  <si>
-    <t>pakāseti 2</t>
-  </si>
-  <si>
-    <t>parisodheti</t>
-  </si>
-  <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
-    <t>atikkāmeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 4</t>
-  </si>
-  <si>
     <t>kappeti 1</t>
   </si>
   <si>
@@ -922,291 +922,339 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>attha 1.3</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>attha 1.3</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -1225,15 +1273,9 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
     <t>ogha 1</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -1252,24 +1294,15 @@
     <t>uddesa 1</t>
   </si>
   <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
     <t>vūpasama 1</t>
   </si>
   <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
     <t>paṭilābha</t>
   </si>
   <si>
@@ -1312,24 +1345,15 @@
     <t>kumāra 2</t>
   </si>
   <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
     <t>paribbājaka</t>
   </si>
   <si>
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -1339,9 +1363,6 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>rājañña</t>
   </si>
   <si>
@@ -1351,27 +1372,12 @@
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>amanasikāra 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>udapāna</t>
   </si>
   <si>
@@ -1399,9 +1405,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -1414,9 +1417,6 @@
     <t>passāva</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>majjha 2</t>
   </si>
   <si>
@@ -1474,6 +1474,9 @@
     <t>pasavati 2</t>
   </si>
   <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
@@ -1489,102 +1492,99 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
     <t>ārabhati 1.1</t>
   </si>
   <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>paṭisañcikkhati</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
   </si>
   <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>paṭisañcikkhati</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
     <t>vattati 1</t>
   </si>
   <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>nisīdati</t>
   </si>
   <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -1672,12 +1672,12 @@
     <t>seti 2</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>eti 1</t>
   </si>
   <si>
@@ -1747,45 +1747,51 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>muñcati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>muñcati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
     <t>upādiyati</t>
   </si>
   <si>
     <t>atthi 2</t>
   </si>
   <si>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>amha 1.1</t>
   </si>
   <si>
@@ -1795,15 +1801,9 @@
     <t>attha 4.2</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -1903,15 +1903,15 @@
     <t>ajjhabhāsi</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -1921,18 +1921,18 @@
     <t>mada 1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>ājīva</t>
   </si>
   <si>
     <t>appamāda</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>taca 1</t>
   </si>
   <si>
@@ -2146,15 +2146,15 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>bhagavant 1</t>
   </si>
   <si>
     <t>iddhimant</t>
   </si>
   <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
@@ -2185,6 +2185,9 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>dāni</t>
+  </si>
+  <si>
     <t>kālena</t>
   </si>
   <si>
@@ -2203,18 +2206,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -2326,6 +2326,9 @@
     <t>paññā 1</t>
   </si>
   <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>abhijjhā</t>
   </si>
   <si>
@@ -2359,9 +2362,6 @@
     <t>pabbajjā</t>
   </si>
   <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
@@ -2401,15 +2401,18 @@
     <t>vipassanā</t>
   </si>
   <si>
+    <t>ovāda</t>
+  </si>
+  <si>
     <t>asammosa</t>
   </si>
   <si>
-    <t>ovāda</t>
-  </si>
-  <si>
     <t>gahetvā 5</t>
   </si>
   <si>
+    <t>disvāna</t>
+  </si>
+  <si>
     <t>acchādetvā</t>
   </si>
   <si>
@@ -2455,9 +2458,6 @@
     <t>upasaṅkamitvā</t>
   </si>
   <si>
-    <t>disvāna</t>
-  </si>
-  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
@@ -2611,6 +2611,9 @@
     <t>pāripūrī</t>
   </si>
   <si>
+    <t>bhikkhunī</t>
+  </si>
+  <si>
     <t>anusāsanī</t>
   </si>
   <si>
@@ -2620,9 +2623,6 @@
     <t>bārāṇasī 1</t>
   </si>
   <si>
-    <t>bhikkhunī</t>
-  </si>
-  <si>
     <t>sāvatthī</t>
   </si>
   <si>
@@ -2632,12 +2632,12 @@
     <t>atthāya 2</t>
   </si>
   <si>
+    <t>atthāya 1</t>
+  </si>
+  <si>
     <t>piṇḍāya</t>
   </si>
   <si>
-    <t>atthāya 1</t>
-  </si>
-  <si>
     <t>tiṇa 1</t>
   </si>
   <si>
@@ -2647,252 +2647,255 @@
     <t>pāpa 3</t>
   </si>
   <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>brahmacariya 1</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>aṅga 1</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>kula 2</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
     <t>bhūta 3</t>
   </si>
   <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>aṅga 1</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>kula 2</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>phala 1.1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>aṅga 2</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
   </si>
   <si>
     <t>arañña</t>
   </si>
   <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>vana 1.1</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>citta 1.1</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>addhāna 2</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>nimitta 1</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>addhāna 1</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>jhāna 2</t>
   </si>
   <si>
     <t>dassanāya 2</t>
   </si>
   <si>
-    <t>phala 1.1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>aṅga 2</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>vana 1.1</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>addhāna 2</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>nimitta 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>addhāna 1</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
-    <t>jhāna 2</t>
-  </si>
-  <si>
     <t>dukkaṭa 3</t>
   </si>
   <si>
@@ -2905,9 +2908,6 @@
     <t>pārājika 3</t>
   </si>
   <si>
-    <t>brahmacariya 1</t>
-  </si>
-  <si>
     <t>saṃyojana 1</t>
   </si>
   <si>
@@ -2944,30 +2944,30 @@
     <t>kittāvatā</t>
   </si>
   <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
+    <t>alaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 5</t>
+  </si>
+  <si>
+    <t>api 1.2</t>
+  </si>
+  <si>
     <t>alaṃ 2</t>
   </si>
   <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
-    <t>alaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 5</t>
-  </si>
-  <si>
-    <t>api 1.2</t>
-  </si>
-  <si>
     <t>samanupassituṃ</t>
   </si>
   <si>
@@ -2986,12 +2986,12 @@
     <t>āyu 2</t>
   </si>
   <si>
+    <t>vatthu 2</t>
+  </si>
+  <si>
     <t>cakkhu 1</t>
   </si>
   <si>
-    <t>vatthu 2</t>
-  </si>
-  <si>
     <t>pron</t>
   </si>
   <si>
@@ -3067,39 +3067,39 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
     <t>seeing</t>
   </si>
   <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
     <t>seeing; perceiving</t>
   </si>
   <si>
     <t>standing; standing still</t>
   </si>
   <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
     <t>remembering; recollecting; keeping in mind</t>
   </si>
   <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>lasting; remaining; persisting; lit. standing</t>
   </si>
   <si>
+    <t>not seeing; not noticing; not aware</t>
+  </si>
+  <si>
     <t>not knowing; being ignorant (of)</t>
   </si>
   <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>not seeing; not noticing; not aware</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -3112,6 +3112,9 @@
     <t>falling away; dying</t>
   </si>
   <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>walking; walking about; wandering around (in); going around</t>
   </si>
   <si>
@@ -3121,9 +3124,6 @@
     <t>arising; appearing; coming into being</t>
   </si>
   <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
@@ -3208,165 +3208,165 @@
     <t>not accessible; not approachable; lit. with no space around</t>
   </si>
   <si>
+    <t>secluded (from); isolated (from); withdrawn (from)</t>
+  </si>
+  <si>
+    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
+  </si>
+  <si>
+    <t>standard; commonly accepted; lit. well-gone</t>
+  </si>
+  <si>
+    <t>impersonal; not oneself; non-subjective; not suitable to identify with; coreless; essenceless</t>
+  </si>
+  <si>
+    <t>righteous; just; lit. according to the Dhamma</t>
+  </si>
+  <si>
+    <t>mindful; present; attentive</t>
+  </si>
+  <si>
+    <t>middle; middling; medium; medium-sized; moderate</t>
+  </si>
+  <si>
+    <t>earlier; past; former; previous</t>
+  </si>
+  <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
+    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
+  </si>
+  <si>
+    <t>dear (to); beloved (by); loved (by)</t>
+  </si>
+  <si>
+    <t>easily done; easy to do; easy to make</t>
+  </si>
+  <si>
+    <t>experienced; learned; competent; trained; lit. distinguished</t>
+  </si>
+  <si>
+    <t>not sick; healthy</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
+  </si>
+  <si>
+    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
+  </si>
+  <si>
+    <t>wishing for; desiring; wanting</t>
+  </si>
+  <si>
+    <t>foremost; best (of); primary; most important; supreme</t>
+  </si>
+  <si>
+    <t>true; correct; accurate; honest; reliable</t>
+  </si>
+  <si>
+    <t>pure; bright</t>
+  </si>
+  <si>
+    <t>vast; extensive; expansive; massive</t>
+  </si>
+  <si>
+    <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
+  </si>
+  <si>
+    <t>well spoken; articulate; eloquent</t>
+  </si>
+  <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
+    <t>clearly aware; fully knowing; completely comprehending</t>
+  </si>
+  <si>
+    <t>easy (on); comfortable (for); pleasant (for); good (for); contented</t>
+  </si>
+  <si>
+    <t>signless; featureless; free of mental images; lit. no sign</t>
+  </si>
+  <si>
+    <t>existing; born; living; lit. become</t>
+  </si>
+  <si>
+    <t>(of food) solid; heavy; substantial</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
+    <t>unbroken; unfragmented; whole</t>
+  </si>
+  <si>
+    <t>unskilful; incompetent; inexperienced</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>best; highest; ultimate; supreme; top</t>
+  </si>
+  <si>
+    <t>marvellous; extraordinary; unbelievable; astonishing</t>
+  </si>
+  <si>
+    <t>wonderful; marvellous</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>excellent; lofty; high; noble</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
     <t>diligent (in); vigilant (about); careful (about); attentive (to); lit. not intoxicated</t>
   </si>
   <si>
-    <t>secluded (from); isolated (from); withdrawn (from)</t>
-  </si>
-  <si>
-    <t>standard; commonly accepted; lit. well-gone</t>
-  </si>
-  <si>
-    <t>impersonal; not oneself; non-subjective; not suitable to identify with; coreless; essenceless</t>
-  </si>
-  <si>
-    <t>righteous; just; lit. according to the Dhamma</t>
-  </si>
-  <si>
-    <t>mindful; present; attentive</t>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>few; not many; not much</t>
+  </si>
+  <si>
+    <t>fit (for); capable (of); suitable (for)</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>immeasurable; unlimited; limitless; boundless</t>
   </si>
   <si>
     <t>right (hand side)</t>
   </si>
   <si>
-    <t>middle; middling; medium; medium-sized; moderate</t>
-  </si>
-  <si>
-    <t>earlier; past; former; previous</t>
-  </si>
-  <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
-    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
-  </si>
-  <si>
-    <t>dear (to); beloved (by); loved (by)</t>
-  </si>
-  <si>
-    <t>easily done; easy to do; easy to make</t>
-  </si>
-  <si>
-    <t>experienced; learned; competent; trained; lit. distinguished</t>
-  </si>
-  <si>
-    <t>not sick; healthy</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
-  </si>
-  <si>
-    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
-  </si>
-  <si>
-    <t>wishing for; desiring; wanting</t>
-  </si>
-  <si>
-    <t>foremost; best (of); primary; most important; supreme</t>
-  </si>
-  <si>
-    <t>true; correct; accurate; honest; reliable</t>
-  </si>
-  <si>
-    <t>pure; bright</t>
-  </si>
-  <si>
-    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
-  </si>
-  <si>
-    <t>immeasurable; unlimited; limitless; boundless</t>
-  </si>
-  <si>
-    <t>vast; extensive; expansive; massive</t>
-  </si>
-  <si>
-    <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
-  </si>
-  <si>
-    <t>well spoken; articulate; eloquent</t>
-  </si>
-  <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
-    <t>clearly aware; fully knowing; completely comprehending</t>
-  </si>
-  <si>
-    <t>easy (on); comfortable (for); pleasant (for); good (for); contented</t>
-  </si>
-  <si>
-    <t>signless; featureless; free of mental images; lit. no sign</t>
-  </si>
-  <si>
-    <t>existing; born; living; lit. become</t>
-  </si>
-  <si>
-    <t>(of food) solid; heavy; substantial</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
-    <t>unbroken; unfragmented; whole</t>
-  </si>
-  <si>
-    <t>unskilful; incompetent; inexperienced</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>best; highest; ultimate; supreme; top</t>
-  </si>
-  <si>
-    <t>marvellous; extraordinary; unbelievable; astonishing</t>
-  </si>
-  <si>
-    <t>wonderful; marvellous</t>
-  </si>
-  <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>excellent; lofty; high; noble</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>few; not many; not much</t>
-  </si>
-  <si>
-    <t>fit (for); capable (of); suitable (for)</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
@@ -3451,36 +3451,36 @@
     <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
   </si>
   <si>
+    <t>become (a certain way); being in (some state); gone into (a state)</t>
+  </si>
+  <si>
+    <t>seen; found; visible</t>
+  </si>
+  <si>
+    <t>freed (from); released (from); saved (from)</t>
+  </si>
+  <si>
+    <t>asked; questioned</t>
+  </si>
+  <si>
+    <t>arisen; appeared; come into being</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>present; in attendance; available; lit. stood near</t>
+  </si>
+  <si>
+    <t>given (to); offered (to)</t>
+  </si>
+  <si>
+    <t>full; filled up; complete</t>
+  </si>
+  <si>
     <t>passed away; died</t>
   </si>
   <si>
-    <t>become (a certain way); being in (some state); gone into (a state)</t>
-  </si>
-  <si>
-    <t>seen; found; visible</t>
-  </si>
-  <si>
-    <t>freed (from); released (from); saved (from)</t>
-  </si>
-  <si>
-    <t>asked; questioned</t>
-  </si>
-  <si>
-    <t>arisen; appeared; come into being</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>present; in attendance; available; lit. stood near</t>
-  </si>
-  <si>
-    <t>given (to); offered (to)</t>
-  </si>
-  <si>
-    <t>full; filled up; complete</t>
-  </si>
-  <si>
     <t>touched (by); contacted (by); experienced</t>
   </si>
   <si>
@@ -3502,12 +3502,12 @@
     <t>as dangerous; as fearful</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>many; much; lots (of); a lot (of); great; large</t>
   </si>
   <si>
@@ -3526,6 +3526,9 @@
     <t>wise; intelligent; discerning; knowledgeable</t>
   </si>
   <si>
+    <t>sixth (6th)</t>
+  </si>
+  <si>
     <t>eighth (8th)</t>
   </si>
   <si>
@@ -3550,27 +3553,24 @@
     <t>first (1st); prime</t>
   </si>
   <si>
-    <t>sixth (6th)</t>
+    <t>nine (9)</t>
+  </si>
+  <si>
+    <t>seven (7)</t>
+  </si>
+  <si>
+    <t>five (5)</t>
+  </si>
+  <si>
+    <t>six (6)</t>
+  </si>
+  <si>
+    <t>eight (8)</t>
   </si>
   <si>
     <t>ten (10)</t>
   </si>
   <si>
-    <t>eight (8)</t>
-  </si>
-  <si>
-    <t>nine (9)</t>
-  </si>
-  <si>
-    <t>seven (7)</t>
-  </si>
-  <si>
-    <t>five (5)</t>
-  </si>
-  <si>
-    <t>six (6)</t>
-  </si>
-  <si>
     <t>one hundred (100)</t>
   </si>
   <si>
@@ -3631,6 +3631,9 @@
     <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
   </si>
   <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
   </si>
   <si>
@@ -3643,9 +3646,6 @@
     <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
   </si>
   <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
@@ -3691,102 +3691,102 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
+    <t>away (from); far away (from); distant (from)</t>
+  </si>
+  <si>
+    <t>externally; outwardly</t>
+  </si>
+  <si>
+    <t>well; carefully; thoroughly; fully; completely</t>
+  </si>
+  <si>
+    <t>by day; during the day; for a day</t>
+  </si>
+  <si>
+    <t>again; once more</t>
+  </si>
+  <si>
     <t>if</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
-    <t>away (from); far away (from); distant (from)</t>
-  </si>
-  <si>
-    <t>externally; outwardly</t>
-  </si>
-  <si>
-    <t>well; carefully; thoroughly; fully; completely</t>
-  </si>
-  <si>
-    <t>by day; during the day; for a day</t>
-  </si>
-  <si>
-    <t>again; once more</t>
+    <t>thus; like this; this is; and so</t>
+  </si>
+  <si>
+    <t>there; in such-and-such a place</t>
+  </si>
+  <si>
+    <t>(of place) from here; away from; lit. from this</t>
+  </si>
+  <si>
+    <t>behind; backwards; lit. from behind</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>below; under</t>
+  </si>
+  <si>
+    <t>above; up; on top</t>
+  </si>
+  <si>
+    <t>even so much as; even with; even down to; with as little as</t>
+  </si>
+  <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
+    <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
+  </si>
+  <si>
+    <t>internally; inwardly; personally</t>
+  </si>
+  <si>
+    <t>mostly; almost all; more or less; generally; largely; by and large; for the most part</t>
+  </si>
+  <si>
+    <t>near (to); not far (from)</t>
+  </si>
+  <si>
+    <t>really; truly; definitely</t>
+  </si>
+  <si>
+    <t>on the spot; right there; immediately; lit. from the place</t>
+  </si>
+  <si>
+    <t>certainly; surely; indeed</t>
+  </si>
+  <si>
+    <t>completely; thoroughly; fully; totally</t>
+  </si>
+  <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
+    <t>only; just; merely; exclusively</t>
+  </si>
+  <si>
+    <t>in detail; in full; thoroughly</t>
+  </si>
+  <si>
+    <t>both; on both sides (of); in both ways; dually; lit. from both</t>
+  </si>
+  <si>
+    <t>it is good (for); it would be good (if)</t>
+  </si>
+  <si>
+    <t>from far away; from afar</t>
   </si>
   <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
-    <t>thus; like this; this is; and so</t>
-  </si>
-  <si>
-    <t>there; in such-and-such a place</t>
-  </si>
-  <si>
-    <t>(of place) from here; away from; lit. from this</t>
-  </si>
-  <si>
-    <t>behind; backwards; lit. from behind</t>
-  </si>
-  <si>
-    <t>across</t>
-  </si>
-  <si>
-    <t>below; under</t>
-  </si>
-  <si>
-    <t>above; up; on top</t>
-  </si>
-  <si>
-    <t>even so much as; even with; even down to; with as little as</t>
-  </si>
-  <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
-    <t>internally; inwardly; personally</t>
-  </si>
-  <si>
-    <t>mostly; almost all; more or less; generally; largely; by and large; for the most part</t>
-  </si>
-  <si>
-    <t>near (to); not far (from)</t>
-  </si>
-  <si>
-    <t>really; truly; definitely</t>
-  </si>
-  <si>
-    <t>on the spot; right there; immediately; lit. from the place</t>
-  </si>
-  <si>
-    <t>certainly; surely; indeed</t>
-  </si>
-  <si>
-    <t>completely; thoroughly; fully; totally</t>
-  </si>
-  <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
-    <t>only; just; merely; exclusively</t>
-  </si>
-  <si>
-    <t>in detail; in full; thoroughly</t>
-  </si>
-  <si>
-    <t>both; on both sides (of); in both ways; dually; lit. from both</t>
-  </si>
-  <si>
-    <t>it is good (for); it would be good (if)</t>
-  </si>
-  <si>
-    <t>from far away; from afar</t>
-  </si>
-  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
-  </si>
-  <si>
     <t>existing (in); being found (in)</t>
   </si>
   <si>
@@ -3820,15 +3820,15 @@
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
     <t>should be cultivated; should be developed; lit. to be caused to be</t>
   </si>
   <si>
     <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
   </si>
   <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
     <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
   </si>
   <si>
@@ -3868,45 +3868,45 @@
     <t>deprives (of); removes (from); cuts off (from); takes down (from)</t>
   </si>
   <si>
+    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
+  </si>
+  <si>
+    <t>honour; reveres; hold in high esteem</t>
+  </si>
+  <si>
+    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
+  </si>
+  <si>
+    <t>is evident; lit. makes itself known</t>
+  </si>
+  <si>
+    <t>fills up; fills out; lit. causes to fill</t>
+  </si>
+  <si>
+    <t>soaks; drenches; lit. makes flow around</t>
+  </si>
+  <si>
+    <t>inclines (towards); bends (towards); directs (towards)</t>
+  </si>
+  <si>
+    <t>explains; illustrates; illuminates; reveals; teaches</t>
+  </si>
+  <si>
+    <t>cleans (from); purifies (of)</t>
+  </si>
+  <si>
+    <t>stretches out; straightens; extends; lit. causes to go forward</t>
+  </si>
+  <si>
+    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
+  </si>
+  <si>
+    <t>builds; has constructed; lit. causes to build</t>
+  </si>
+  <si>
     <t>preach (to); teaches (to); explains (to)</t>
   </si>
   <si>
-    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
-  </si>
-  <si>
-    <t>honour; reveres; hold in high esteem</t>
-  </si>
-  <si>
-    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
-  </si>
-  <si>
-    <t>is evident; lit. makes itself known</t>
-  </si>
-  <si>
-    <t>fills up; fills out; lit. causes to fill</t>
-  </si>
-  <si>
-    <t>soaks; drenches; lit. makes flow around</t>
-  </si>
-  <si>
-    <t>inclines (towards); bends (towards); directs (towards)</t>
-  </si>
-  <si>
-    <t>explains; illustrates; illuminates; reveals; teaches</t>
-  </si>
-  <si>
-    <t>cleans (from); purifies (of)</t>
-  </si>
-  <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
-    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
-  </si>
-  <si>
-    <t>builds; has constructed; lit. causes to build</t>
-  </si>
-  <si>
     <t>prepares; arranges; forms; fashions; constructs</t>
   </si>
   <si>
@@ -3937,291 +3937,339 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>purpose; use; function</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>purpose; use; function</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -4240,15 +4288,9 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
     <t>(of water) flood; deluge; torrent</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -4267,24 +4309,15 @@
     <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
   </si>
   <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
     <t>peace (of); calming (of); subsiding (of); settling (of)</t>
   </si>
   <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
     <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
   </si>
   <si>
@@ -4327,24 +4360,15 @@
     <t>prince</t>
   </si>
   <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -4354,9 +4378,6 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>man of the ruling class; young noble</t>
   </si>
   <si>
@@ -4366,27 +4387,12 @@
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>non-attention; ignoring; lit. not making in mind</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>well; (comm) pond; pool; lit. water drinking</t>
   </si>
   <si>
@@ -4414,9 +4420,6 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -4426,9 +4429,6 @@
     <t>urine</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>middle</t>
   </si>
   <si>
@@ -4486,6 +4486,9 @@
     <t>produces; generates; makes; gives birth to; lit. flows forth</t>
   </si>
   <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
@@ -4501,102 +4504,99 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>reflects; considers; discerns</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
   </si>
   <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>reflects; considers; discerns</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>sits (on); sits down (in)</t>
   </si>
   <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -4684,12 +4684,12 @@
     <t>sleeps</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>comes (to)</t>
   </si>
   <si>
@@ -4756,45 +4756,51 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>gets angry (with); lit. releases</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>gets angry (with); lit. releases</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
     <t>there are; they are</t>
   </si>
   <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>we are</t>
   </si>
   <si>
@@ -4804,15 +4810,9 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -4912,15 +4912,15 @@
     <t>addressed; spoke (to)</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -4930,18 +4930,18 @@
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
     <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
     <t>alertness; care; carefulness; caution; vigilance; diligence; conscientiousness; heedfulness; lit. not heedless</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
     <t>skin</t>
   </si>
   <si>
@@ -5155,15 +5155,15 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>venerable; reverend; lit. having age quality</t>
+  </si>
+  <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
     <t>who has psychic powers; possessing supernatural ability; lit. having power quality</t>
   </si>
   <si>
-    <t>venerable; reverend; lit. having age quality</t>
-  </si>
-  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
@@ -5194,6 +5194,9 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
@@ -5212,18 +5215,15 @@
     <t>always; ever; all the time</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>and; both</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
@@ -5407,15 +5407,18 @@
     <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
   </si>
   <si>
+    <t>advice; instruction encouragement; exhortation</t>
+  </si>
+  <si>
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
-    <t>advice; instruction encouragement; exhortation</t>
-  </si>
-  <si>
     <t>having arrested; having taken prisoner</t>
   </si>
   <si>
+    <t>having seen</t>
+  </si>
+  <si>
     <t>having dressed (in); having clothed oneself (in); having put on; lit. having covered</t>
   </si>
   <si>
@@ -5458,9 +5461,6 @@
     <t>having approached; having gone (to); having drawn near (to)</t>
   </si>
   <si>
-    <t>having seen</t>
-  </si>
-  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
@@ -5611,6 +5611,9 @@
     <t>fulfilment; completion; perfecting; maturity</t>
   </si>
   <si>
+    <t>nun; fully ordained nun</t>
+  </si>
+  <si>
     <t>advice; instruction; teaching</t>
   </si>
   <si>
@@ -5620,9 +5623,6 @@
     <t>name of a city; modern Varanasi</t>
   </si>
   <si>
-    <t>nun; fully ordained nun</t>
-  </si>
-  <si>
     <t>name of a city; capital of Kosala</t>
   </si>
   <si>
@@ -5632,12 +5632,12 @@
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
+    <t>for the purpose (of); for the sake (of); for the benefit (of)</t>
+  </si>
+  <si>
     <t>for alms; to collect alms food</t>
   </si>
   <si>
-    <t>for the purpose (of); for the sake (of); for the benefit (of)</t>
-  </si>
-  <si>
     <t>grass; straw</t>
   </si>
   <si>
@@ -5647,252 +5647,255 @@
     <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
   </si>
   <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure; contentment</t>
+  </si>
+  <si>
+    <t>welfare (of); good (of); benefit (of); blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+  </si>
+  <si>
+    <t>effort; energy; might; power; lit. virility</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>part of the body; limb</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>supporter; supporting family; lit. family</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
     <t>being; living being; entity; lit. become</t>
   </si>
   <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure; contentment</t>
-  </si>
-  <si>
-    <t>welfare (of); good (of); benefit (of); blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>effort; energy; might; power; lit. virility</t>
-  </si>
-  <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>part of the body; limb</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>supporter; supporting family; lit. family</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>knowing (of); understanding (of); insight (into)</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>fruit; nut; berry</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>part; member</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
   </si>
   <si>
     <t>forest; wood; wilds; wilderness; lit. remoteness</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>knowing (of); understanding (of); insight (into)</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>wood; forest; grove</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
+    <t>mind; heart</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>time; period; extent</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>mark; sign; symbol; indication</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>long road; highroad; journey</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>meditation; stage of meditation; lit. meditating</t>
   </si>
   <si>
     <t>in order to visit; for the purpose of seeing</t>
   </si>
   <si>
-    <t>fruit; nut; berry</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>part; member</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>wood; forest; grove</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>time; period; extent</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>mark; sign; symbol; indication</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>long road; highroad; journey</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>mind; heart</t>
-  </si>
-  <si>
-    <t>meditation; stage of meditation; lit. meditating</t>
-  </si>
-  <si>
     <t>class of vinaya offence; wrong-doing; lit. badly done</t>
   </si>
   <si>
@@ -5905,9 +5908,6 @@
     <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
   </si>
   <si>
-    <t>spiritual path; spiritual practice; holy life; celibacy</t>
-  </si>
-  <si>
     <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
   </si>
   <si>
@@ -5944,30 +5944,30 @@
     <t>in what way?; to what extent?; in what respect?</t>
   </si>
   <si>
+    <t>how?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; so much so; up to; until; from … to</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
+    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
+  </si>
+  <si>
+    <t>that’s enough (of)!; stop (with)!</t>
+  </si>
+  <si>
+    <t>even; even then</t>
+  </si>
+  <si>
     <t>is able (to); is possible (to); is capable (of); lit. enough</t>
   </si>
   <si>
-    <t>how?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; so much so; up to; until; from … to</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
-  </si>
-  <si>
-    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
-  </si>
-  <si>
-    <t>that’s enough (of)!; stop (with)!</t>
-  </si>
-  <si>
-    <t>even; even then</t>
-  </si>
-  <si>
     <t>to see (as); to regard (as); to consider (as)</t>
   </si>
   <si>
@@ -5986,10 +5986,10 @@
     <t>life force; life energy</t>
   </si>
   <si>
+    <t>site; location; base; grounds; lit. ground</t>
+  </si>
+  <si>
     <t>eye</t>
-  </si>
-  <si>
-    <t>site; location; base; grounds; lit. ground</t>
   </si>
   <si>
     <t>a-pron</t>
@@ -10369,7 +10369,7 @@
         <v>997</v>
       </c>
       <c r="C223" t="s">
-        <v>1225</v>
+        <v>1232</v>
       </c>
       <c r="D223" t="s">
         <v>997</v>
@@ -10386,7 +10386,7 @@
         <v>997</v>
       </c>
       <c r="C224" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D224" t="s">
         <v>997</v>
@@ -10403,7 +10403,7 @@
         <v>997</v>
       </c>
       <c r="C225" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D225" t="s">
         <v>997</v>
@@ -10420,7 +10420,7 @@
         <v>997</v>
       </c>
       <c r="C226" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D226" t="s">
         <v>997</v>
@@ -10437,7 +10437,7 @@
         <v>997</v>
       </c>
       <c r="C227" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D227" t="s">
         <v>997</v>
@@ -10454,7 +10454,7 @@
         <v>997</v>
       </c>
       <c r="C228" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D228" t="s">
         <v>997</v>
@@ -10471,7 +10471,7 @@
         <v>997</v>
       </c>
       <c r="C229" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D229" t="s">
         <v>997</v>
@@ -10488,7 +10488,7 @@
         <v>997</v>
       </c>
       <c r="C230" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D230" t="s">
         <v>997</v>
@@ -10505,7 +10505,7 @@
         <v>997</v>
       </c>
       <c r="C231" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="D231" t="s">
         <v>997</v>
@@ -14398,7 +14398,7 @@
         <v>995</v>
       </c>
       <c r="C460" t="s">
-        <v>1334</v>
+        <v>1468</v>
       </c>
       <c r="D460" t="s">
         <v>2000</v>
@@ -14415,7 +14415,7 @@
         <v>995</v>
       </c>
       <c r="C461" t="s">
-        <v>1468</v>
+        <v>1335</v>
       </c>
       <c r="D461" t="s">
         <v>2000</v>
@@ -16588,7 +16588,7 @@
         <v>592</v>
       </c>
       <c r="B589" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C589" t="s">
         <v>1595</v>
@@ -16622,7 +16622,7 @@
         <v>594</v>
       </c>
       <c r="B591" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C591" t="s">
         <v>1597</v>
@@ -19617,7 +19617,7 @@
         <v>1005</v>
       </c>
       <c r="C767" t="s">
-        <v>1773</v>
+        <v>1402</v>
       </c>
       <c r="D767" t="s">
         <v>2022</v>
@@ -19634,7 +19634,7 @@
         <v>1005</v>
       </c>
       <c r="C768" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D768" t="s">
         <v>2022</v>
@@ -19651,7 +19651,7 @@
         <v>1005</v>
       </c>
       <c r="C769" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D769" t="s">
         <v>2022</v>
@@ -19668,7 +19668,7 @@
         <v>1005</v>
       </c>
       <c r="C770" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D770" t="s">
         <v>2022</v>
@@ -19685,7 +19685,7 @@
         <v>1005</v>
       </c>
       <c r="C771" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D771" t="s">
         <v>2022</v>
@@ -19702,7 +19702,7 @@
         <v>1005</v>
       </c>
       <c r="C772" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D772" t="s">
         <v>2022</v>
@@ -19719,7 +19719,7 @@
         <v>1005</v>
       </c>
       <c r="C773" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D773" t="s">
         <v>2022</v>
@@ -19736,7 +19736,7 @@
         <v>1005</v>
       </c>
       <c r="C774" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D774" t="s">
         <v>2022</v>
@@ -19753,7 +19753,7 @@
         <v>1005</v>
       </c>
       <c r="C775" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D775" t="s">
         <v>2022</v>
@@ -19770,7 +19770,7 @@
         <v>1005</v>
       </c>
       <c r="C776" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D776" t="s">
         <v>2022</v>
@@ -19787,7 +19787,7 @@
         <v>1005</v>
       </c>
       <c r="C777" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D777" t="s">
         <v>2022</v>
@@ -19804,7 +19804,7 @@
         <v>1005</v>
       </c>
       <c r="C778" t="s">
-        <v>1310</v>
+        <v>1783</v>
       </c>
       <c r="D778" t="s">
         <v>2022</v>
@@ -20314,7 +20314,7 @@
         <v>1002</v>
       </c>
       <c r="C808" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="D808" t="s">
         <v>1002</v>
@@ -20331,7 +20331,7 @@
         <v>1002</v>
       </c>
       <c r="C809" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="D809" t="s">
         <v>1002</v>

--- a/pali-class/vocab/vocab-class17.xlsx
+++ b/pali-class/vocab/vocab-class17.xlsx
@@ -232,6 +232,9 @@
     <t>sukka 1</t>
   </si>
   <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
     <t>sampajāna 1</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
     <t>anavajja 1</t>
   </si>
   <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
     <t>iṭṭha 1</t>
   </si>
   <si>
@@ -376,36 +376,36 @@
     <t>appamatta 1.1</t>
   </si>
   <si>
+    <t>patta 3.1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
     <t>cuta 1.1</t>
   </si>
   <si>
-    <t>patta 3.1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
-  </si>
-  <si>
     <t>vutta 2.1</t>
   </si>
   <si>
@@ -622,12 +622,12 @@
     <t>dissati 2</t>
   </si>
   <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
     <t>khajjati 1</t>
   </si>
   <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>chijjati 1</t>
   </si>
   <si>
@@ -1528,117 +1528,117 @@
     <t>gaṇhati 1</t>
   </si>
   <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>pakkhandati 1</t>
   </si>
   <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -3250,6 +3250,9 @@
     <t>pure; bright</t>
   </si>
   <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
     <t>clearly aware; fully knowing; completely comprehending</t>
   </si>
   <si>
@@ -3268,9 +3271,6 @@
     <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
   </si>
   <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
     <t>pleasing; likeable; cherished; wished for; lit. wished</t>
   </si>
   <si>
@@ -3394,36 +3394,36 @@
     <t>diligent (in); vigilant (about); careful (about); attentive (to); lit. not intoxicated</t>
   </si>
   <si>
+    <t>reached; attained; gained; accomplished; found</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>ordained (from); renounced (from); lit. exiled</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>got; acquired; attained; achieved; lit. arrived at</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content; happy with</t>
+  </si>
+  <si>
+    <t>done; did; completed</t>
+  </si>
+  <si>
+    <t>freed (from); liberated (from); emancipated (from)</t>
+  </si>
+  <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
     <t>passed away; died</t>
   </si>
   <si>
-    <t>reached; attained; gained; accomplished; found</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>ordained (from); renounced (from); lit. exiled</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>got; acquired; attained; achieved; lit. arrived at</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content; happy with</t>
-  </si>
-  <si>
-    <t>done; did; completed</t>
-  </si>
-  <si>
-    <t>freed (from); liberated (from); emancipated (from)</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
-  </si>
-  <si>
     <t>said; told; spoken; mentioned</t>
   </si>
   <si>
@@ -3640,12 +3640,12 @@
     <t>seems; lit. is seen</t>
   </si>
   <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
     <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
   </si>
   <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
@@ -4540,117 +4540,117 @@
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
   </si>
   <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -4819,7 +4819,7 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may it be (for)!</t>

--- a/pali-class/vocab/vocab-class17.xlsx
+++ b/pali-class/vocab/vocab-class17.xlsx
@@ -2692,123 +2692,123 @@
     <t>aṅga 1</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>aṅga 3</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>aṅga 3</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -5695,121 +5695,121 @@
     <t>part of the body; limb</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>factor; component; element; quality; aspect; lit. part</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>factor; component; element; quality; aspect; lit. part</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>

--- a/pali-class/vocab/vocab-class17.xlsx
+++ b/pali-class/vocab/vocab-class17.xlsx
@@ -784,33 +784,33 @@
     <t>bhāvita 1</t>
   </si>
   <si>
+    <t>vacanīya 2</t>
+  </si>
+  <si>
+    <t>pahātabba</t>
+  </si>
+  <si>
+    <t>veditabba 1</t>
+  </si>
+  <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
+    <t>sikkhitabba</t>
+  </si>
+  <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
+    <t>karaṇīya 2</t>
+  </si>
+  <si>
     <t>kātabba 2</t>
   </si>
   <si>
-    <t>vacanīya 2</t>
-  </si>
-  <si>
-    <t>pahātabba</t>
-  </si>
-  <si>
-    <t>veditabba 1</t>
-  </si>
-  <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
-    <t>sikkhitabba</t>
-  </si>
-  <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
-    <t>karaṇīya 2</t>
-  </si>
-  <si>
     <t>kāretabba 1</t>
   </si>
   <si>
@@ -1867,30 +1867,30 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -3340,7 +3340,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>fit (for); capable (of); suitable (for)</t>
@@ -3694,7 +3694,7 @@
     <t>internally; inwardly; personally</t>
   </si>
   <si>
-    <t>by one’s own; oneself; one’s own</t>
+    <t>by one's own; oneself; one's own</t>
   </si>
   <si>
     <t>so; thus; in such a way; likewise; similarly</t>
@@ -3802,33 +3802,33 @@
     <t>cultivated; developed; lit. caused to be</t>
   </si>
   <si>
+    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
+  </si>
+  <si>
+    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
+  </si>
+  <si>
+    <t>can be known (by); should be understood (by); lit. to be known</t>
+  </si>
+  <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
+    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
+  </si>
+  <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
+    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
+  </si>
+  <si>
     <t>should be made; lit. to be done</t>
   </si>
   <si>
-    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
-  </si>
-  <si>
-    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
-  </si>
-  <si>
-    <t>can be known (by); should be understood (by); lit. to be known</t>
-  </si>
-  <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
-    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
-  </si>
-  <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
-    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
-  </si>
-  <si>
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
@@ -4879,30 +4879,30 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5008,10 +5008,10 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>surely?; didn’t?; isn't it?; definitely</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
+    <t>surely?; didn't?; isn't it?; definitely</t>
+  </si>
+  <si>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -5512,7 +5512,7 @@
     <t>rain; rainfall</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -5929,10 +5929,10 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>could it be?; what if?; shall?; let’s?; perhaps?</t>
-  </si>
-  <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>could it be?; what if?; shall?; let's?; perhaps?</t>
+  </si>
+  <si>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -5962,7 +5962,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class17.xlsx
+++ b/pali-class/vocab/vocab-class17.xlsx
@@ -391,6 +391,9 @@
     <t>adhigata 1</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
     <t>santuṭṭha 1</t>
   </si>
   <si>
@@ -430,9 +433,6 @@
     <t>pahīna</t>
   </si>
   <si>
-    <t>paricita</t>
-  </si>
-  <si>
     <t>puṭṭha 1.1</t>
   </si>
   <si>
@@ -466,12 +466,12 @@
     <t>vusita 1</t>
   </si>
   <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -760,15 +760,15 @@
     <t>atha 1</t>
   </si>
   <si>
+    <t>atha 2</t>
+  </si>
+  <si>
     <t>aññathā 1</t>
   </si>
   <si>
     <t>accayena 2</t>
   </si>
   <si>
-    <t>atha 2</t>
-  </si>
-  <si>
     <t>yebhuyyena</t>
   </si>
   <si>
@@ -1006,384 +1006,384 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -1525,6 +1525,9 @@
     <t>ākaṅkhati</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -1561,96 +1564,93 @@
     <t>saṃvattati</t>
   </si>
   <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>passa 2.1</t>
+  </si>
+  <si>
     <t>vasati</t>
   </si>
   <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>passa 2.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1765,6 +1765,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1777,9 +1780,6 @@
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>muñcati 2</t>
   </si>
   <si>
@@ -1957,24 +1957,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2146,6 +2146,9 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
@@ -2155,9 +2158,6 @@
     <t>iddhimant</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>akkhātar</t>
   </si>
   <si>
@@ -2470,9 +2470,15 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
     <t>nissāya 1</t>
   </si>
   <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
@@ -2491,15 +2497,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -2572,18 +2572,18 @@
     <t>tattha 1</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
     <t>yato 2</t>
   </si>
   <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>upari 1</t>
   </si>
   <si>
@@ -2740,6 +2740,9 @@
     <t>vera</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
@@ -2911,9 +2914,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -3412,6 +3412,9 @@
     <t>got; acquired; attained; achieved; lit. arrived at</t>
   </si>
   <si>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
     <t>satisfied; pleased; content; happy with</t>
   </si>
   <si>
@@ -3451,9 +3454,6 @@
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
     <t>asked; questioned</t>
   </si>
   <si>
@@ -3487,12 +3487,12 @@
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -3778,15 +3778,15 @@
     <t>then; also; and so; after that</t>
   </si>
   <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
     <t>after the death (of); after the passing (of); lit. with the passing</t>
   </si>
   <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
     <t>mostly; almost all; more or less; generally; largely; by and large; for the most part</t>
   </si>
   <si>
@@ -4024,381 +4024,381 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -4540,6 +4540,9 @@
     <t>wishes (for); wants; desires; aspires (for)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -4576,96 +4579,93 @@
     <t>leads (to); results (in); causes</t>
   </si>
   <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
     <t>lives; stays; resides (in)</t>
   </si>
   <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>see!; look (at)!</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -4777,6 +4777,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -4789,9 +4792,6 @@
     <t>causes; effects</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>gets angry (with); lit. releases</t>
   </si>
   <si>
@@ -4969,24 +4969,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5158,6 +5158,9 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
@@ -5167,9 +5170,6 @@
     <t>who has psychic powers; possessing supernatural ability; lit. having power quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
@@ -5476,9 +5476,15 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
     <t>leaning (on); depending (on); being supported (by)</t>
   </si>
   <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
@@ -5497,15 +5503,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -5578,15 +5578,15 @@
     <t>there; in that place</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
     <t>since; because; due to the fact that; lit. from which</t>
   </si>
   <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>above; overhead</t>
   </si>
   <si>
@@ -5743,6 +5743,9 @@
     <t>hatred; ill-will; animosity; hostility</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>which is not given; something not offered</t>
   </si>
   <si>
@@ -5912,9 +5915,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -13042,7 +13042,7 @@
         <v>996</v>
       </c>
       <c r="C379" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="D379" t="s">
         <v>2002</v>
@@ -13059,7 +13059,7 @@
         <v>996</v>
       </c>
       <c r="C380" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D380" t="s">
         <v>2002</v>
@@ -13076,7 +13076,7 @@
         <v>996</v>
       </c>
       <c r="C381" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="D381" t="s">
         <v>2002</v>
@@ -15776,7 +15776,7 @@
         <v>543</v>
       </c>
       <c r="B540" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C540" t="s">
         <v>1548</v>
@@ -15793,7 +15793,7 @@
         <v>544</v>
       </c>
       <c r="B541" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C541" t="s">
         <v>1549</v>
@@ -19893,7 +19893,7 @@
         <v>1006</v>
       </c>
       <c r="C782" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D782" t="s">
         <v>2025</v>
@@ -21049,7 +21049,7 @@
         <v>998</v>
       </c>
       <c r="C850" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D850" t="s">
         <v>998</v>
@@ -21066,7 +21066,7 @@
         <v>998</v>
       </c>
       <c r="C851" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="D851" t="s">
         <v>998</v>
